--- a/Data/Processed/Daytime/Models.xlsx
+++ b/Data/Processed/Daytime/Models.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\Data\Processed\Daytime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2799D241-C192-4373-9894-58F66A91B0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1729C4-CDF2-403A-B4AF-C6C4192ABD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="2" r:id="rId1"/>
-    <sheet name="Q2" sheetId="3" r:id="rId2"/>
-    <sheet name="Q3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Q2" sheetId="3" r:id="rId3"/>
+    <sheet name="Q3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="97">
   <si>
     <t>DenstyL:GnO</t>
   </si>
@@ -137,12 +138,6 @@
     <t>df</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Std.</t>
-  </si>
-  <si>
     <t>Estimate</t>
   </si>
   <si>
@@ -303,16 +298,44 @@
   </si>
   <si>
     <t>976,</t>
+  </si>
+  <si>
+    <t>Std. Error</t>
+  </si>
+  <si>
+    <t>H(0)</t>
+  </si>
+  <si>
+    <t>L(1)</t>
+  </si>
+  <si>
+    <t>A(0)</t>
+  </si>
+  <si>
+    <t>B(1)</t>
+  </si>
+  <si>
+    <t>C(2)</t>
+  </si>
+  <si>
+    <t>O(3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -326,7 +349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -334,13 +357,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +844,7 @@
   <dimension ref="A2:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,103 +856,103 @@
   <sheetData>
     <row r="2" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
         <v>70</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>69</v>
       </c>
-      <c r="J3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s">
-        <v>71</v>
-      </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>1892.8</v>
@@ -784,27 +960,27 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -826,29 +1002,29 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -862,7 +1038,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -876,7 +1052,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>8.0379000000000006E-2</v>
@@ -887,88 +1063,115 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
         <v>32</v>
       </c>
+      <c r="J20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="12">
         <v>2.2086700000000001</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="12">
         <v>6.3619999999999996E-2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="12">
         <v>36.757800000000003</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="12">
         <v>34.719000000000001</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="13">
         <v>2E-16</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="14" t="s">
         <v>27</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -996,6 +1199,15 @@
       <c r="H22" t="s">
         <v>27</v>
       </c>
+      <c r="J22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1021,6 +1233,15 @@
       </c>
       <c r="H23" t="s">
         <v>27</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+      <c r="L23" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1359,11 +1580,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188D256B-9522-4C0B-8A5C-4456293B6463}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1977B83-A602-417F-8B51-6483C4C25C1A}">
   <dimension ref="A2:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E16"/>
+      <selection activeCell="A26" sqref="A26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,109 +1610,109 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
         <v>70</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>69</v>
       </c>
-      <c r="L3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" t="s">
-        <v>71</v>
-      </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>1830.9</v>
@@ -1485,27 +1720,27 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1527,29 +1762,29 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -1563,7 +1798,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1577,7 +1812,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>8.0379000000000006E-2</v>
@@ -1588,28 +1823,28 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I17">
         <v>4</v>
@@ -1620,29 +1855,26 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2113,12 +2345,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2BBBD3-A326-4619-9F79-F4936C420D68}">
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2130,103 +2362,103 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
         <v>70</v>
-      </c>
-      <c r="M2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>498.9</v>
@@ -2234,71 +2466,71 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B9">
         <v>-3.3942000000000001</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>-0.54969999999999997</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-1.6000000000000001E-3</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.56630000000000003</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4.6517999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -2312,7 +2544,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>6.3369999999999996E-2</v>
@@ -2323,22 +2555,22 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>122</v>
@@ -2349,29 +2581,26 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2397,6 +2626,7 @@
       <c r="H19" t="s">
         <v>27</v>
       </c>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -2527,7 +2757,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25">
         <v>0.70145999999999997</v>
@@ -2620,7 +2850,7 @@
         <v>1.89E-2</v>
       </c>
       <c r="H28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -2706,7 +2936,7 @@
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s">
         <v>9</v>
@@ -2787,7 +3017,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39">
         <v>-0.55100000000000005</v>
@@ -2897,5 +3127,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Processed/Daytime/Models.xlsx
+++ b/Data/Processed/Daytime/Models.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\Data\Processed\Daytime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1729C4-CDF2-403A-B4AF-C6C4192ABD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5026CD61-1533-448D-B498-52317566B448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
     <sheet name="Q2" sheetId="3" r:id="rId3"/>
     <sheet name="Q3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="120">
   <si>
     <t>DenstyL:GnO</t>
   </si>
@@ -319,6 +321,75 @@
   </si>
   <si>
     <t>O(3)</t>
+  </si>
+  <si>
+    <t>Std.</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>VPD:REW</t>
+  </si>
+  <si>
+    <t>DnL:GO</t>
+  </si>
+  <si>
+    <t>Call:</t>
+  </si>
+  <si>
+    <t>aov(formula</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Block),</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Join)</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>Pr(&gt;F)</t>
+  </si>
+  <si>
+    <t>&lt;2e-16</t>
+  </si>
+  <si>
+    <t>Density:Geno</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>Sum Sq</t>
+  </si>
+  <si>
+    <t>Mean Sq</t>
+  </si>
+  <si>
+    <t>F Value</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>1|DOYTRUE</t>
+  </si>
+  <si>
+    <t>1|BlockTRUE</t>
   </si>
 </sst>
 </file>
@@ -478,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -517,6 +588,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,6 +638,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9538283" y="615315"/>
+          <a:ext cx="7958823" cy="4236720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>967740</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7958823" cy="4236720"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3820C95B-42E5-4877-A36B-52E31A535EE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="967740" y="3019425"/>
           <a:ext cx="7958823" cy="4236720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -843,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30BD2C4-1BF8-489F-8700-1BE1FEF7BF83}">
   <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,19 +1100,19 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B10">
         <v>-3.0985999999999998</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-0.61409999999999998</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-4.3299999999999998E-2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.60140000000000005</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5.3513999999999999</v>
       </c>
     </row>
@@ -1580,16 +1696,308 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188D256B-9522-4C0B-8A5C-4456293B6463}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A54D916-79F1-4DBB-91EF-29C550261392}">
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>424.1</v>
+      </c>
+      <c r="D5">
+        <v>424.1</v>
+      </c>
+      <c r="E5">
+        <v>991.71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>74.5</v>
+      </c>
+      <c r="D6">
+        <v>24.8</v>
+      </c>
+      <c r="E6">
+        <v>58.11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>127.7</v>
+      </c>
+      <c r="D7">
+        <v>42.6</v>
+      </c>
+      <c r="E7">
+        <v>99.57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8">
+        <v>3896</v>
+      </c>
+      <c r="C8">
+        <v>1666</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>0.01</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>0.05</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>0.1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2.20867133</v>
+      </c>
+      <c r="B14">
+        <v>-0.74809393000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.23772747</v>
+      </c>
+      <c r="D14">
+        <v>-0.62508343</v>
+      </c>
+      <c r="E14">
+        <v>-6.2408060000000001E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14">
+        <v>-0.36254984000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.64697842999999999</v>
+      </c>
+      <c r="J14">
+        <v>7.1312920000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1597,14 +2005,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1977B83-A602-417F-8B51-6483C4C25C1A}">
   <dimension ref="A2:P42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:H26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1744,19 +2152,19 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B10">
         <v>-3.0886</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-0.61360000000000003</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.04</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.60419999999999996</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5.3613</v>
       </c>
     </row>
@@ -2006,25 +2414,26 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>1.2768999999999999</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>0.13952000000000001</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>119.99996</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>9.1519999999999992</v>
       </c>
-      <c r="G26" s="1">
+      <c r="F26" s="2"/>
+      <c r="G26" s="18">
         <v>1.7899999999999999E-15</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2342,6 +2751,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2350,12 +2760,12 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
@@ -2730,25 +3140,25 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>1.3963099999999999</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>0.13278000000000001</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>119.83244999999999</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>10.516</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="18">
         <v>2E-16</v>
       </c>
       <c r="H24" t="s">
@@ -2756,22 +3166,23 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>0.70145999999999997</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>0.12182</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>525.08465999999999</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>5.758</v>
       </c>
-      <c r="G25" s="1">
+      <c r="F25" s="2"/>
+      <c r="G25" s="18">
         <v>1.4500000000000001E-8</v>
       </c>
       <c r="H25" t="s">
@@ -3129,4 +3540,853 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE422E4-9594-4C17-AABE-2B1300558220}">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>465.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>-3.2728000000000002</v>
+      </c>
+      <c r="C9">
+        <v>-0.5444</v>
+      </c>
+      <c r="D9">
+        <v>-1.3599999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="F9">
+        <v>4.6706000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0.15095</v>
+      </c>
+      <c r="E13">
+        <v>0.38850000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>6.2330000000000003E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.24970000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>1.2142500000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.11385000000000001</v>
+      </c>
+      <c r="D19">
+        <v>251.19514000000001</v>
+      </c>
+      <c r="E19">
+        <v>10.664999999999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>-0.54500000000000004</v>
+      </c>
+      <c r="C20">
+        <v>3.2129999999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>850.58748000000003</v>
+      </c>
+      <c r="E20">
+        <v>-16.96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>0.58672999999999997</v>
+      </c>
+      <c r="C21">
+        <v>3.2689999999999997E-2</v>
+      </c>
+      <c r="D21">
+        <v>876.75792000000001</v>
+      </c>
+      <c r="E21">
+        <v>17.948</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>-0.39968999999999999</v>
+      </c>
+      <c r="C22">
+        <v>3.236E-2</v>
+      </c>
+      <c r="D22">
+        <v>859.99040000000002</v>
+      </c>
+      <c r="E22">
+        <v>-12.353</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>0.20881</v>
+      </c>
+      <c r="C23">
+        <v>3.3250000000000002E-2</v>
+      </c>
+      <c r="D23">
+        <v>898.03053</v>
+      </c>
+      <c r="E23">
+        <v>6.2809999999999997</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5.2500000000000005E-10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0.85587999999999997</v>
+      </c>
+      <c r="C24">
+        <v>0.15351000000000001</v>
+      </c>
+      <c r="D24">
+        <v>207.83079000000001</v>
+      </c>
+      <c r="E24">
+        <v>5.5750000000000002</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7.6199999999999994E-8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25">
+        <v>-0.39033000000000001</v>
+      </c>
+      <c r="C25">
+        <v>0.22112999999999999</v>
+      </c>
+      <c r="D25">
+        <v>692.91515000000004</v>
+      </c>
+      <c r="E25">
+        <v>-1.7649999999999999</v>
+      </c>
+      <c r="G25">
+        <v>7.7979999999999994E-2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>-0.58155000000000001</v>
+      </c>
+      <c r="C26">
+        <v>4.5220000000000003E-2</v>
+      </c>
+      <c r="D26">
+        <v>843.85013000000004</v>
+      </c>
+      <c r="E26">
+        <v>-12.861000000000001</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0.52436000000000005</v>
+      </c>
+      <c r="C27">
+        <v>4.6969999999999998E-2</v>
+      </c>
+      <c r="D27">
+        <v>896.55668000000003</v>
+      </c>
+      <c r="E27">
+        <v>11.163</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.12174</v>
+      </c>
+      <c r="C28">
+        <v>4.5359999999999998E-2</v>
+      </c>
+      <c r="D28">
+        <v>848.5489</v>
+      </c>
+      <c r="E28">
+        <v>2.6840000000000002</v>
+      </c>
+      <c r="G28">
+        <v>7.4200000000000004E-3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>2.0577200000000002</v>
+      </c>
+      <c r="C29">
+        <v>0.34827999999999998</v>
+      </c>
+      <c r="D29">
+        <v>727.46759999999995</v>
+      </c>
+      <c r="E29">
+        <v>5.9080000000000004</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5.3100000000000001E-9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>1E-3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>0.01</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31">
+        <v>0.05</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31">
+        <v>0.1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>-0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>-0.223</v>
+      </c>
+      <c r="C36">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>-0.24</v>
+      </c>
+      <c r="C37">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>-0.27100000000000002</v>
+      </c>
+      <c r="C38">
+        <v>0.502</v>
+      </c>
+      <c r="D38">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E38">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>-0.82699999999999996</v>
+      </c>
+      <c r="C39">
+        <v>0.04</v>
+      </c>
+      <c r="D39">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E39">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F39">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40">
+        <v>-0.65400000000000003</v>
+      </c>
+      <c r="C40">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D40">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E40">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F40">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G40">
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C41">
+        <v>-0.70099999999999996</v>
+      </c>
+      <c r="D41">
+        <v>-0.69</v>
+      </c>
+      <c r="E41">
+        <v>-0.34599999999999997</v>
+      </c>
+      <c r="F41">
+        <v>-0.33700000000000002</v>
+      </c>
+      <c r="G41">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H41">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C42">
+        <v>-0.66</v>
+      </c>
+      <c r="D42">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="E42">
+        <v>-0.64400000000000002</v>
+      </c>
+      <c r="F42">
+        <v>-0.25700000000000001</v>
+      </c>
+      <c r="G42">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="H42">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I42">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0.09</v>
+      </c>
+      <c r="C43">
+        <v>-0.69799999999999995</v>
+      </c>
+      <c r="D43">
+        <v>-0.32900000000000001</v>
+      </c>
+      <c r="E43">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="F43">
+        <v>-0.65900000000000003</v>
+      </c>
+      <c r="G43">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="H43">
+        <v>-0.01</v>
+      </c>
+      <c r="I43">
+        <v>0.498</v>
+      </c>
+      <c r="J43">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="C44">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D44">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E44">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="F44">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G44">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="H44">
+        <v>-0.84799999999999998</v>
+      </c>
+      <c r="I44">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="J44">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="K44">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Processed/Daytime/Models.xlsx
+++ b/Data/Processed/Daytime/Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\Data\Processed\Daytime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5026CD61-1533-448D-B498-52317566B448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09715A0-A087-44D0-AAC4-F837F40C2EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="134">
   <si>
     <t>DenstyL:GnO</t>
   </si>
@@ -390,6 +389,48 @@
   </si>
   <si>
     <t>1|BlockTRUE</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SoMo</t>
+  </si>
+  <si>
+    <t>Density:SoMo</t>
+  </si>
+  <si>
+    <t>Geno:SoMo</t>
+  </si>
+  <si>
+    <t>Density:Geno:SoMo</t>
+  </si>
+  <si>
+    <t>m&lt;-aov(SapflowPerGroundArea</t>
+  </si>
+  <si>
+    <t>Density*Geno*SoMo+</t>
+  </si>
+  <si>
+    <t>(1|</t>
+  </si>
+  <si>
+    <t>+(1|Block),</t>
+  </si>
+  <si>
+    <t>Low)</t>
+  </si>
+  <si>
+    <t>+ (1|DOY)</t>
+  </si>
+  <si>
+    <t>High)</t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>Dry</t>
   </si>
 </sst>
 </file>
@@ -549,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -589,6 +630,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,20 +694,25 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>967740</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>586741</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7958823" cy="4236720"/>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>392637</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>149929</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3820C95B-42E5-4877-A36B-52E31A535EE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C642BCDA-EB41-228F-13B7-417C1E9ADA48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -681,8 +728,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="967740" y="3019425"/>
-          <a:ext cx="7958823" cy="4236720"/>
+          <a:off x="586741" y="9128760"/>
+          <a:ext cx="5307536" cy="3274129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -690,7 +737,95 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>27412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>383893</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>50869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A868C6C-E543-28AF-1BF4-FC677757D51C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="9171412"/>
+          <a:ext cx="5077813" cy="3132417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>229857</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7667C6AA-EDA0-7923-6AA8-83858F9A1657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6278880" y="0"/>
+          <a:ext cx="11934177" cy="5493609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -959,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30BD2C4-1BF8-489F-8700-1BE1FEF7BF83}">
   <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1697,21 +1832,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A54D916-79F1-4DBB-91EF-29C550261392}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1992,6 +2129,747 @@
       </c>
       <c r="J14">
         <v>7.1312920000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>424.1</v>
+      </c>
+      <c r="D19">
+        <v>424.1</v>
+      </c>
+      <c r="E19">
+        <v>1047.9269999999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>74.5</v>
+      </c>
+      <c r="D20">
+        <v>24.8</v>
+      </c>
+      <c r="E20">
+        <v>61.405999999999999</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>51.4</v>
+      </c>
+      <c r="D21">
+        <v>25.7</v>
+      </c>
+      <c r="E21">
+        <v>63.488999999999997</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>139.1</v>
+      </c>
+      <c r="D22">
+        <v>46.4</v>
+      </c>
+      <c r="E22">
+        <v>114.613</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>9.9390000000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4.9499999999999997E-5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>16.7</v>
+      </c>
+      <c r="D24">
+        <v>2.8</v>
+      </c>
+      <c r="E24">
+        <v>6.8579999999999997</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.96E-7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>8.4</v>
+      </c>
+      <c r="D25">
+        <v>1.4</v>
+      </c>
+      <c r="E25">
+        <v>3.444</v>
+      </c>
+      <c r="G25">
+        <v>2.15E-3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26">
+        <v>3880</v>
+      </c>
+      <c r="C26">
+        <v>1570.1</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>0.01</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28">
+        <v>0.05</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>0.1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" t="s">
+        <v>73</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q31" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" t="s">
+        <v>105</v>
+      </c>
+      <c r="M32" t="s">
+        <v>106</v>
+      </c>
+      <c r="N32" t="s">
+        <v>104</v>
+      </c>
+      <c r="O32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" t="s">
+        <v>108</v>
+      </c>
+      <c r="L34" t="s">
+        <v>113</v>
+      </c>
+      <c r="M34" t="s">
+        <v>114</v>
+      </c>
+      <c r="N34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>226.4</v>
+      </c>
+      <c r="D35">
+        <v>226.39</v>
+      </c>
+      <c r="E35">
+        <v>632.42999999999995</v>
+      </c>
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>93.23</v>
+      </c>
+      <c r="M35">
+        <v>93.23</v>
+      </c>
+      <c r="N35">
+        <v>252.065</v>
+      </c>
+      <c r="O35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>47.5</v>
+      </c>
+      <c r="D36">
+        <v>15.84</v>
+      </c>
+      <c r="E36">
+        <v>44.26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>14.93</v>
+      </c>
+      <c r="M36">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="N36">
+        <v>13.455</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1.6499999999999999E-8</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>121</v>
+      </c>
+      <c r="D37">
+        <v>40.33</v>
+      </c>
+      <c r="E37">
+        <v>112.65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>111</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>6.54</v>
+      </c>
+      <c r="M37">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="N37">
+        <v>5.8940000000000001</v>
+      </c>
+      <c r="O37">
+        <v>5.7300000000000005E-4</v>
+      </c>
+      <c r="P37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38">
+        <v>2484</v>
+      </c>
+      <c r="C38">
+        <v>889.2</v>
+      </c>
+      <c r="D38">
+        <v>0.36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38">
+        <v>604</v>
+      </c>
+      <c r="L38">
+        <v>223.4</v>
+      </c>
+      <c r="M38">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40">
+        <v>1E-3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40">
+        <v>0.01</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R40">
+        <v>0.05</v>
+      </c>
+      <c r="S40" t="s">
+        <v>18</v>
+      </c>
+      <c r="T40">
+        <v>0.1</v>
+      </c>
+      <c r="U40" t="s">
+        <v>17</v>
+      </c>
+      <c r="V40" t="s">
+        <v>16</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2.0340043900000002</v>
+      </c>
+      <c r="B44">
+        <v>-0.61583138000000004</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.35958243000000001</v>
+      </c>
+      <c r="D44">
+        <v>-0.69684787999999998</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4.4466520000000002E-2</v>
+      </c>
+      <c r="F44">
+        <v>-0.50278630999999996</v>
+      </c>
+      <c r="G44">
+        <v>0.71461134000000004</v>
+      </c>
+      <c r="H44">
+        <v>-9.4942520000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2.5015872300000002</v>
+      </c>
+      <c r="B47">
+        <v>-1.01055446</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-6.5165459999999995E-2</v>
+      </c>
+      <c r="D47">
+        <v>-0.54093859</v>
+      </c>
+      <c r="E47" s="2">
+        <v>-0.25543274999999999</v>
+      </c>
+      <c r="F47">
+        <v>-0.19168661000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.43165297000000002</v>
+      </c>
+      <c r="H47">
+        <v>0.32348942000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Processed/Daytime/Models.xlsx
+++ b/Data/Processed/Daytime/Models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\Data\Processed\Daytime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34D2FFB-A673-4C11-9A79-ACA98F30FB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C30710C-49B6-4152-9997-85E8445DDE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-1335" windowWidth="27045" windowHeight="14070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="243">
   <si>
     <t>DenstyL:GnO</t>
   </si>
@@ -1066,7 +1066,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1118,7 +1118,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1139,10 +1139,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1154,10 +1154,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,16 +1172,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,30 +1190,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3950,8 +3941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82C7035-2358-4F21-9037-2A4C488E9CA5}">
   <dimension ref="A1:AI110"/>
   <sheetViews>
-    <sheetView topLeftCell="K30" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4018,18 +4009,24 @@
         <v>13866.513684564919</v>
       </c>
       <c r="F2" s="38">
-        <f>E2-D2</f>
+        <f t="shared" ref="F2:F9" si="0">E2-D2</f>
         <v>1441.2883401420295</v>
       </c>
       <c r="G2" s="38">
-        <f>F2/121</f>
+        <f t="shared" ref="G2:G18" si="1">F2/121</f>
         <v>11.911473885471318</v>
       </c>
-      <c r="K2" s="28" t="s">
-        <v>145</v>
+      <c r="J2">
+        <v>404.43</v>
+      </c>
+      <c r="K2">
+        <v>404.43</v>
       </c>
       <c r="L2">
-        <v>1441.2883401420295</v>
+        <v>404.43</v>
+      </c>
+      <c r="M2">
+        <v>404.43</v>
       </c>
       <c r="AA2" t="s">
         <v>145</v>
@@ -4073,18 +4070,24 @@
         <v>14295.04553997557</v>
       </c>
       <c r="F3" s="38">
-        <f>E3-D3</f>
+        <f t="shared" si="0"/>
         <v>1484.6174212573806</v>
       </c>
       <c r="G3" s="38">
-        <f>F3/121</f>
+        <f t="shared" si="1"/>
         <v>12.269565464937029</v>
       </c>
-      <c r="K3" s="25" t="s">
-        <v>146</v>
+      <c r="J3">
+        <v>404.43</v>
+      </c>
+      <c r="K3">
+        <v>404.43</v>
       </c>
       <c r="L3">
-        <v>3504.3165222515199</v>
+        <v>404.43</v>
+      </c>
+      <c r="M3">
+        <v>404.43</v>
       </c>
       <c r="Z3" t="s">
         <v>178</v>
@@ -4131,39 +4134,45 @@
         <v>14403.014924298421</v>
       </c>
       <c r="F4" s="38">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>1794.84155528464</v>
       </c>
       <c r="G4" s="38">
-        <f>F4/121</f>
+        <f t="shared" si="1"/>
         <v>14.833401283344132</v>
       </c>
-      <c r="K4" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" s="23">
-        <v>1484.6174212573806</v>
-      </c>
-      <c r="O4" s="49"/>
-      <c r="P4" s="45" t="s">
+      <c r="J4">
+        <v>404.43</v>
+      </c>
+      <c r="K4">
+        <v>404.43</v>
+      </c>
+      <c r="L4">
+        <v>404.43</v>
+      </c>
+      <c r="M4">
+        <v>404.43</v>
+      </c>
+      <c r="O4" s="46"/>
+      <c r="P4" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="R4" s="55"/>
-      <c r="S4" s="52" t="s">
+      <c r="R4" s="53"/>
+      <c r="S4" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="T4" s="52"/>
-      <c r="U4" s="46" t="s">
+      <c r="T4" s="54"/>
+      <c r="U4" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46" t="s">
+      <c r="V4" s="53"/>
+      <c r="W4" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="X4" s="46"/>
+      <c r="X4" s="53"/>
       <c r="Z4" t="s">
         <v>184</v>
       </c>
@@ -4209,45 +4218,51 @@
         <v>13171.999458954309</v>
       </c>
       <c r="F5" s="38">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>1776.4063787184587</v>
       </c>
       <c r="G5" s="38">
-        <f>F5/121</f>
+        <f t="shared" si="1"/>
         <v>14.681044452218666</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="23">
-        <v>3356.590341349769</v>
-      </c>
-      <c r="O5" s="47" t="s">
+      <c r="J5">
+        <v>404.43</v>
+      </c>
+      <c r="K5">
+        <v>404.43</v>
+      </c>
+      <c r="L5">
+        <v>404.43</v>
+      </c>
+      <c r="M5">
+        <v>404.43</v>
+      </c>
+      <c r="O5" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="50" t="s">
+      <c r="P5" s="53"/>
+      <c r="Q5" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="S5" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="U5" s="47" t="s">
+      <c r="U5" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="V5" s="47" t="s">
+      <c r="V5" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="W5" s="47" t="s">
+      <c r="W5" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="X5" s="51" t="s">
+      <c r="X5" s="48" t="s">
         <v>168</v>
       </c>
       <c r="AA5" t="s">
@@ -4295,47 +4310,53 @@
         <v>26180.233434154139</v>
       </c>
       <c r="F6" s="38">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>3504.3165222515199</v>
       </c>
       <c r="G6" s="38">
-        <f>F6/121</f>
+        <f t="shared" si="1"/>
         <v>28.961293572326611</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="L6" s="23">
-        <v>1794.84155528464</v>
-      </c>
-      <c r="O6" s="53">
+      <c r="J6">
+        <v>134.505</v>
+      </c>
+      <c r="K6">
+        <v>134.505</v>
+      </c>
+      <c r="L6">
+        <v>134.505</v>
+      </c>
+      <c r="M6">
+        <v>134.505</v>
+      </c>
+      <c r="O6" s="43">
         <v>1</v>
       </c>
-      <c r="P6" s="53" t="s">
+      <c r="P6" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="Q6" s="53" t="s">
+      <c r="Q6" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="R6" s="53" t="s">
+      <c r="R6" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="S6" s="53" t="s">
+      <c r="S6" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="T6" s="53" t="s">
+      <c r="T6" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="U6" s="53" t="s">
+      <c r="U6" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="V6" s="53" t="s">
+      <c r="V6" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="W6" s="49" t="s">
+      <c r="W6" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="X6" s="49" t="s">
+      <c r="X6" s="46" t="s">
         <v>158</v>
       </c>
       <c r="AA6" t="s">
@@ -4383,47 +4404,53 @@
         <v>25114.785021027339</v>
       </c>
       <c r="F7" s="38">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>3356.590341349769</v>
       </c>
       <c r="G7" s="38">
-        <f>F7/121</f>
+        <f t="shared" si="1"/>
         <v>27.740416044212967</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L7" s="23">
-        <v>4468.9621743596108</v>
-      </c>
-      <c r="O7" s="53">
+      <c r="J7">
+        <v>134.505</v>
+      </c>
+      <c r="K7">
+        <v>134.505</v>
+      </c>
+      <c r="L7">
+        <v>134.505</v>
+      </c>
+      <c r="M7">
+        <v>134.505</v>
+      </c>
+      <c r="O7" s="43">
         <v>2</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="P7" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="Q7" s="53" t="s">
+      <c r="Q7" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="R7" s="53" t="s">
+      <c r="R7" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="S7" s="53" t="s">
+      <c r="S7" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="T7" s="53" t="s">
+      <c r="T7" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="U7" s="53" t="s">
+      <c r="U7" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="V7" s="53" t="s">
+      <c r="V7" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="W7" s="49" t="s">
+      <c r="W7" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="X7" s="49" t="s">
+      <c r="X7" s="46" t="s">
         <v>156</v>
       </c>
       <c r="AA7" t="s">
@@ -4471,47 +4498,53 @@
         <v>30780.88470536358</v>
       </c>
       <c r="F8" s="38">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>4468.9621743596108</v>
       </c>
       <c r="G8" s="38">
-        <f>F8/121</f>
+        <f t="shared" si="1"/>
         <v>36.933571688922406</v>
       </c>
-      <c r="K8" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="L8" s="23">
-        <v>1776.4063787184587</v>
-      </c>
-      <c r="O8" s="53">
+      <c r="J8">
+        <v>134.505</v>
+      </c>
+      <c r="K8">
+        <v>134.505</v>
+      </c>
+      <c r="L8">
+        <v>134.505</v>
+      </c>
+      <c r="M8">
+        <v>134.505</v>
+      </c>
+      <c r="O8" s="43">
         <v>3</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="Q8" s="53" t="s">
+      <c r="Q8" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="R8" s="53" t="s">
+      <c r="R8" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="S8" s="53" t="s">
+      <c r="S8" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="T8" s="53" t="s">
+      <c r="T8" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="U8" s="53" t="s">
+      <c r="U8" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="V8" s="53" t="s">
+      <c r="V8" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="W8" s="49" t="s">
+      <c r="W8" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="X8" s="49" t="s">
+      <c r="X8" s="46" t="s">
         <v>155</v>
       </c>
       <c r="AA8" t="s">
@@ -4559,56 +4592,84 @@
         <v>25719.897856613439</v>
       </c>
       <c r="F9" s="38">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>4116.473904690989</v>
       </c>
       <c r="G9" s="38">
-        <f>F9/121</f>
+        <f t="shared" si="1"/>
         <v>34.020445493313957</v>
       </c>
-      <c r="K9" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="L9" s="23">
-        <v>4116.473904690989</v>
-      </c>
-      <c r="O9" s="53">
+      <c r="J9">
+        <v>134.505</v>
+      </c>
+      <c r="K9">
+        <v>134.505</v>
+      </c>
+      <c r="L9">
+        <v>134.505</v>
+      </c>
+      <c r="M9">
+        <v>134.505</v>
+      </c>
+      <c r="O9" s="43">
         <v>4</v>
       </c>
-      <c r="P9" s="53" t="s">
+      <c r="P9" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="Q9" s="53" t="s">
+      <c r="Q9" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="R9" s="53" t="s">
+      <c r="R9" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="S9" s="53" t="s">
+      <c r="S9" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="T9" s="53" t="s">
+      <c r="T9" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="U9" s="53" t="s">
+      <c r="U9" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="V9" s="53" t="s">
+      <c r="V9" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="W9" s="49" t="s">
+      <c r="W9" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="X9" s="49" t="s">
+      <c r="X9" s="46" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="M10" s="23"/>
+      <c r="A10" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="M10">
+        <v>1441.2883401420295</v>
+      </c>
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
@@ -4617,23 +4678,41 @@
       <c r="T10" s="41"/>
       <c r="U10" s="41"/>
       <c r="V10" s="41"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
     </row>
     <row r="11" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0.95</v>
-      </c>
-      <c r="M11" s="23"/>
+      <c r="A11" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="38">
+        <f>D2/J2</f>
+        <v>30.722808259582351</v>
+      </c>
+      <c r="E11" s="38">
+        <f t="shared" ref="E11:G18" si="2">E2/K2</f>
+        <v>34.286560553284673</v>
+      </c>
+      <c r="F11" s="38">
+        <f t="shared" si="2"/>
+        <v>3.5637522937023203</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" si="2"/>
+        <v>2.9452498295060501E-2</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M11">
+        <v>3504.3165222515199</v>
+      </c>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
@@ -4643,7 +4722,7 @@
       <c r="U11" s="24"/>
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
-      <c r="X11" s="43"/>
+      <c r="X11" s="41"/>
       <c r="AA11" t="s">
         <v>130</v>
       </c>
@@ -4655,6 +4734,37 @@
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="38">
+        <f t="shared" ref="D12:D18" si="3">D3/J3</f>
+        <v>31.67526671789479</v>
+      </c>
+      <c r="E12" s="38">
+        <f t="shared" si="2"/>
+        <v>35.34615518130596</v>
+      </c>
+      <c r="F12" s="38">
+        <f t="shared" si="2"/>
+        <v>3.6708884634111727</v>
+      </c>
+      <c r="G12" s="38">
+        <f t="shared" si="2"/>
+        <v>3.0337921185216301E-2</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="M12" s="23">
+        <v>1484.6174212573806</v>
+      </c>
       <c r="X12" s="41"/>
       <c r="Z12" t="s">
         <v>134</v>
@@ -4670,6 +4780,37 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="38">
+        <f t="shared" si="3"/>
+        <v>31.175168432148407</v>
+      </c>
+      <c r="E13" s="38">
+        <f t="shared" si="2"/>
+        <v>35.613121984764781</v>
+      </c>
+      <c r="F13" s="38">
+        <f t="shared" si="2"/>
+        <v>4.4379535526163734</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" si="2"/>
+        <v>3.6677302087738624E-2</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" s="23">
+        <v>3356.590341349769</v>
+      </c>
       <c r="X13" s="41"/>
       <c r="Z13" t="s">
         <v>135</v>
@@ -4685,6 +4826,37 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="38">
+        <f t="shared" si="3"/>
+        <v>28.176923275315506</v>
+      </c>
+      <c r="E14" s="38">
+        <f t="shared" si="2"/>
+        <v>32.569293719442939</v>
+      </c>
+      <c r="F14" s="38">
+        <f t="shared" si="2"/>
+        <v>4.3923704441274349</v>
+      </c>
+      <c r="G14" s="38">
+        <f t="shared" si="2"/>
+        <v>3.6300582182871362E-2</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" s="23">
+        <v>1794.84155528464</v>
+      </c>
       <c r="X14" s="41"/>
       <c r="Z14" t="s">
         <v>131</v>
@@ -4700,6 +4872,37 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="38">
+        <f t="shared" si="3"/>
+        <v>168.58791057509103</v>
+      </c>
+      <c r="E15" s="38">
+        <f t="shared" si="2"/>
+        <v>194.64133998107238</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="2"/>
+        <v>26.05342940598134</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="2"/>
+        <v>0.21531759839653999</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" s="23">
+        <v>4468.9621743596108</v>
+      </c>
       <c r="X15" s="41"/>
       <c r="Z15" t="s">
         <v>133</v>
@@ -4714,31 +4917,101 @@
         <v>133</v>
       </c>
     </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="38">
+        <f t="shared" si="3"/>
+        <v>161.76495059423493</v>
+      </c>
+      <c r="E16" s="38">
+        <f t="shared" si="2"/>
+        <v>186.72008491154486</v>
+      </c>
+      <c r="F16" s="38">
+        <f t="shared" si="2"/>
+        <v>24.955134317309909</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" si="2"/>
+        <v>0.20624077948190006</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" s="23">
+        <v>1776.4063787184587</v>
+      </c>
+    </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="A17" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="38">
+        <f t="shared" si="3"/>
+        <v>195.62040467643558</v>
+      </c>
+      <c r="E17" s="38">
+        <f t="shared" si="2"/>
+        <v>228.84565410478109</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="shared" si="2"/>
+        <v>33.225249428345499</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="2"/>
+        <v>0.27458883825078922</v>
+      </c>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-    </row>
-    <row r="18" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>165</v>
+      <c r="L17" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" s="23">
+        <v>4116.473904690989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="38">
+        <f t="shared" si="3"/>
+        <v>160.61428163951118</v>
+      </c>
+      <c r="E18" s="38">
+        <f t="shared" si="2"/>
+        <v>191.21889785965905</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="shared" si="2"/>
+        <v>30.604616220147868</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="2"/>
+        <v>0.25293071256320554</v>
       </c>
       <c r="I18" t="s">
         <v>131</v>
@@ -4760,21 +5033,13 @@
       <c r="AC18" s="24"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="33">
-        <v>2.21</v>
-      </c>
-      <c r="E19" s="34">
-        <v>2.9600000000000001E-2</v>
-      </c>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" t="s">
         <v>167</v>
       </c>
@@ -4798,33 +5063,30 @@
       </c>
       <c r="W19" s="24"/>
       <c r="X19" s="24"/>
-      <c r="Y19" s="47" t="s">
+      <c r="Y19" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="Z19" s="47" t="s">
+      <c r="Z19" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="AA19" s="47" t="s">
+      <c r="AA19" s="44" t="s">
         <v>242</v>
       </c>
       <c r="AB19" s="24"/>
       <c r="AC19" s="24"/>
     </row>
     <row r="20" spans="1:29" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="33">
-        <v>1.46</v>
-      </c>
-      <c r="E20" s="34">
-        <v>2.9600000000000001E-2</v>
+      <c r="A20" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0.95</v>
       </c>
       <c r="H20" t="s">
         <v>168</v>
@@ -4849,40 +5111,25 @@
       </c>
       <c r="W20" s="24"/>
       <c r="X20" s="24"/>
-      <c r="Y20" s="54">
+      <c r="Y20" s="49">
         <v>1</v>
       </c>
-      <c r="Z20" s="54" t="s">
+      <c r="Z20" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="AA20" s="54">
+      <c r="AA20" s="49">
         <v>750</v>
       </c>
       <c r="AB20" s="24"/>
       <c r="AC20" s="24"/>
     </row>
     <row r="21" spans="1:29" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="33">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="E21" s="34">
-        <v>2.9600000000000001E-2</v>
-      </c>
       <c r="I21">
         <f>I20-I19</f>
         <v>2063.0281821094904</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21:L21" si="0">J20-J19</f>
+        <f t="shared" ref="J21:L21" si="4">J20-J19</f>
         <v>1871.9729200923884</v>
       </c>
       <c r="K21">
@@ -4890,7 +5137,7 @@
         <v>2674.1206190749708</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2340.0675259725303</v>
       </c>
       <c r="M21" t="s">
@@ -4898,179 +5145,122 @@
       </c>
       <c r="W21" s="24"/>
       <c r="X21" s="24"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47" t="s">
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="AA21" s="47">
+      <c r="AA21" s="44">
         <v>250</v>
       </c>
       <c r="AB21" s="24"/>
       <c r="AC21" s="24"/>
     </row>
     <row r="22" spans="1:29" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="33">
-        <v>1.34</v>
-      </c>
-      <c r="E22" s="34">
-        <v>2.9600000000000001E-2</v>
-      </c>
       <c r="W22" s="24"/>
       <c r="X22" s="24"/>
-      <c r="Y22" s="54">
+      <c r="Y22" s="49">
         <v>2</v>
       </c>
-      <c r="Z22" s="54" t="s">
+      <c r="Z22" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="AA22" s="54">
+      <c r="AA22" s="49">
         <v>250</v>
       </c>
       <c r="AB22" s="24"/>
       <c r="AC22" s="24"/>
     </row>
     <row r="23" spans="1:29" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="33">
-        <v>1.58</v>
-      </c>
-      <c r="E23" s="34">
-        <v>2.9600000000000001E-2</v>
-      </c>
       <c r="P23" s="42"/>
       <c r="Q23" s="42"/>
-      <c r="R23" s="43"/>
+      <c r="R23" s="41"/>
       <c r="U23" s="42"/>
       <c r="W23" s="24"/>
       <c r="X23" s="24"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47" t="s">
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="AA23" s="47">
+      <c r="AA23" s="44">
         <v>750</v>
       </c>
       <c r="AB23" s="24"/>
       <c r="AC23" s="24"/>
     </row>
     <row r="24" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="33">
-        <v>1.48</v>
-      </c>
-      <c r="E24" s="34">
-        <v>2.9600000000000001E-2</v>
-      </c>
       <c r="P24" s="41"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="41"/>
       <c r="U24" s="41"/>
       <c r="W24" s="24"/>
       <c r="X24" s="24"/>
-      <c r="Y24" s="54">
+      <c r="Y24" s="49">
         <v>3</v>
       </c>
-      <c r="Z24" s="54" t="s">
+      <c r="Z24" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="AA24" s="54">
+      <c r="AA24" s="49">
         <v>250</v>
       </c>
       <c r="AB24" s="24"/>
       <c r="AC24" s="24"/>
     </row>
     <row r="25" spans="1:29" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="33">
-        <v>2.15</v>
-      </c>
-      <c r="E25" s="34">
-        <v>2.9600000000000001E-2</v>
-      </c>
       <c r="P25" s="41"/>
       <c r="Q25" s="41"/>
       <c r="R25" s="41"/>
       <c r="U25" s="41"/>
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47" t="s">
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="AA25" s="47">
+      <c r="AA25" s="44">
         <v>250</v>
       </c>
       <c r="AB25" s="24"/>
       <c r="AC25" s="24"/>
     </row>
     <row r="26" spans="1:29" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="35">
-        <v>1.47</v>
-      </c>
-      <c r="E26" s="36">
-        <v>2.9600000000000001E-2</v>
-      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
       <c r="P26" s="41"/>
       <c r="Q26" s="41"/>
       <c r="R26" s="41"/>
       <c r="U26" s="41"/>
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
-      <c r="Y26" s="53">
+      <c r="Y26" s="43">
         <v>4</v>
       </c>
-      <c r="Z26" s="53" t="s">
+      <c r="Z26" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="AA26" s="53">
+      <c r="AA26" s="43">
         <v>750</v>
       </c>
       <c r="AB26" s="24"/>
       <c r="AC26" s="24"/>
     </row>
     <row r="27" spans="1:29" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>165</v>
+      </c>
       <c r="O27" t="s">
         <v>167</v>
       </c>
@@ -5082,17 +5272,32 @@
       <c r="U27" s="41"/>
       <c r="W27" s="24"/>
       <c r="X27" s="24"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53" t="s">
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="AA27" s="53">
+      <c r="AA27" s="43">
         <v>750</v>
       </c>
       <c r="AB27" s="24"/>
       <c r="AC27" s="24"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="33">
+        <v>2.21</v>
+      </c>
+      <c r="E28" s="34">
+        <v>2.9600000000000001E-2</v>
+      </c>
       <c r="N28" t="s">
         <v>134</v>
       </c>
@@ -5110,6 +5315,21 @@
       <c r="AC28" s="24"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="33">
+        <v>1.46</v>
+      </c>
+      <c r="E29" s="34">
+        <v>2.9600000000000001E-2</v>
+      </c>
       <c r="N29" t="s">
         <v>135</v>
       </c>
@@ -5121,6 +5341,21 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="33">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E30" s="34">
+        <v>2.9600000000000001E-2</v>
+      </c>
       <c r="N30" t="s">
         <v>131</v>
       </c>
@@ -5132,6 +5367,21 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="33">
+        <v>1.34</v>
+      </c>
+      <c r="E31" s="34">
+        <v>2.9600000000000001E-2</v>
+      </c>
       <c r="N31" t="s">
         <v>133</v>
       </c>
@@ -5142,15 +5392,83 @@
         <v>3356.590341349769</v>
       </c>
     </row>
-    <row r="37" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="O37" s="44" t="s">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="33">
+        <v>1.58</v>
+      </c>
+      <c r="E32" s="34">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="33">
+        <v>1.48</v>
+      </c>
+      <c r="E33" s="34">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="33">
+        <v>2.15</v>
+      </c>
+      <c r="E34" s="34">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="35">
+        <v>1.47</v>
+      </c>
+      <c r="E35" s="36">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O37" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-    </row>
-    <row r="38" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P38" t="s">
         <v>228</v>
       </c>
@@ -5161,7 +5479,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O39" t="s">
         <v>73</v>
       </c>
@@ -5175,7 +5493,7 @@
         <v>0.18501068795532874</v>
       </c>
     </row>
-    <row r="40" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O40" t="s">
         <v>71</v>
       </c>
@@ -5189,7 +5507,7 @@
         <v>3.2500109060768667E-2</v>
       </c>
     </row>
-    <row r="41" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O41" t="s">
         <v>106</v>
       </c>
@@ -5203,7 +5521,7 @@
         <v>6.1990140906513114E-2</v>
       </c>
     </row>
-    <row r="42" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O42" t="s">
         <v>3</v>
       </c>
@@ -5214,7 +5532,7 @@
         <v>0.24215853073332463</v>
       </c>
     </row>
-    <row r="43" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O43" t="s">
         <v>88</v>
       </c>
@@ -5222,7 +5540,7 @@
         <v>4.0832351786415394E-2</v>
       </c>
     </row>
-    <row r="44" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O44" t="s">
         <v>224</v>
       </c>
@@ -5230,7 +5548,7 @@
         <v>3.5684683505649351E-2</v>
       </c>
     </row>
-    <row r="45" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O45" t="s">
         <v>232</v>
       </c>
@@ -5239,15 +5557,15 @@
         <v>0.27321903764777733</v>
       </c>
       <c r="Q45">
-        <f t="shared" ref="Q45:R45" si="1">SUM(Q39:Q44)</f>
+        <f t="shared" ref="Q45:R45" si="5">SUM(Q39:Q44)</f>
         <v>0.51537756838110194</v>
       </c>
       <c r="R45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.59817650394799993</v>
       </c>
     </row>
-    <row r="46" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K46" t="s">
         <v>229</v>
       </c>
@@ -5255,7 +5573,7 @@
         <v>0.18501068795532871</v>
       </c>
     </row>
-    <row r="47" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K47" t="s">
         <v>230</v>
       </c>
@@ -5263,7 +5581,7 @@
         <v>3.250010906076866E-2</v>
       </c>
     </row>
-    <row r="48" spans="11:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K48" t="s">
         <v>231</v>
       </c>
@@ -5376,25 +5694,7 @@
         <v>0.40182349605200024</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
+    <row r="77" spans="8:24" x14ac:dyDescent="0.3">
       <c r="J77" t="s">
         <v>36</v>
       </c>
@@ -5435,28 +5735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A78" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" s="12">
-        <v>2.2086700000000001</v>
-      </c>
-      <c r="C78" s="12">
-        <v>6.3619999999999996E-2</v>
-      </c>
-      <c r="D78" s="12">
-        <v>36.757800000000003</v>
-      </c>
-      <c r="E78" s="12">
-        <v>34.719000000000001</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" s="13">
-        <v>2E-16</v>
-      </c>
+    <row r="78" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H78" s="14" t="s">
         <v>27</v>
       </c>
@@ -5484,53 +5763,32 @@
       <c r="P78" t="s">
         <v>27</v>
       </c>
-      <c r="Q78" s="56" t="s">
+      <c r="Q78" t="s">
         <v>31</v>
       </c>
-      <c r="R78" s="56">
+      <c r="R78">
         <v>1.46269</v>
       </c>
-      <c r="S78" s="56">
+      <c r="S78">
         <v>9.5060000000000006E-2</v>
       </c>
-      <c r="T78" s="56">
+      <c r="T78">
         <v>94.868440000000007</v>
       </c>
-      <c r="U78" s="56">
+      <c r="U78">
         <v>15.387</v>
       </c>
-      <c r="V78" s="56" t="s">
+      <c r="V78" t="s">
         <v>28</v>
       </c>
       <c r="W78" s="1">
         <v>2E-16</v>
       </c>
-      <c r="X78" s="56" t="s">
+      <c r="X78" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79">
-        <v>-0.74809000000000003</v>
-      </c>
-      <c r="C79">
-        <v>1.8149999999999999E-2</v>
-      </c>
-      <c r="D79">
-        <v>3772.0000199999999</v>
-      </c>
-      <c r="E79">
-        <v>-41.216999999999999</v>
-      </c>
-      <c r="F79" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" s="1">
-        <v>2E-16</v>
-      </c>
+    <row r="79" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H79" t="s">
         <v>27</v>
       </c>
@@ -5558,22 +5816,22 @@
       <c r="P79" t="s">
         <v>27</v>
       </c>
-      <c r="Q79" s="56" t="s">
+      <c r="Q79" t="s">
         <v>7</v>
       </c>
-      <c r="R79" s="56">
+      <c r="R79">
         <v>-0.74168000000000001</v>
       </c>
-      <c r="S79" s="56">
+      <c r="S79">
         <v>1.8190000000000001E-2</v>
       </c>
-      <c r="T79" s="56">
+      <c r="T79">
         <v>3771.6179099999999</v>
       </c>
-      <c r="U79" s="56">
+      <c r="U79">
         <v>-40.781999999999996</v>
       </c>
-      <c r="V79" s="56" t="s">
+      <c r="V79" t="s">
         <v>28</v>
       </c>
       <c r="W79" s="1">
@@ -5583,28 +5841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80">
-        <v>0.23773</v>
-      </c>
-      <c r="C80">
-        <v>1.8149999999999999E-2</v>
-      </c>
-      <c r="D80">
-        <v>3772.0000199999999</v>
-      </c>
-      <c r="E80">
-        <v>13.098000000000001</v>
-      </c>
-      <c r="F80" t="s">
-        <v>28</v>
-      </c>
-      <c r="G80" s="1">
-        <v>2E-16</v>
-      </c>
+    <row r="80" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H80" t="s">
         <v>27</v>
       </c>
@@ -5632,22 +5869,22 @@
       <c r="P80" t="s">
         <v>27</v>
       </c>
-      <c r="Q80" s="56" t="s">
+      <c r="Q80" t="s">
         <v>6</v>
       </c>
-      <c r="R80" s="56">
+      <c r="R80">
         <v>0.25578000000000001</v>
       </c>
-      <c r="S80" s="56">
+      <c r="S80">
         <v>1.823E-2</v>
       </c>
-      <c r="T80" s="56">
+      <c r="T80">
         <v>3775.0900900000001</v>
       </c>
-      <c r="U80" s="56">
+      <c r="U80">
         <v>14.034000000000001</v>
       </c>
-      <c r="V80" s="56" t="s">
+      <c r="V80" t="s">
         <v>28</v>
       </c>
       <c r="W80" s="1">
@@ -5658,27 +5895,6 @@
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81">
-        <v>-0.62507999999999997</v>
-      </c>
-      <c r="C81">
-        <v>1.8149999999999999E-2</v>
-      </c>
-      <c r="D81">
-        <v>3772.0000199999999</v>
-      </c>
-      <c r="E81">
-        <v>-34.44</v>
-      </c>
-      <c r="F81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81" s="1">
-        <v>2E-16</v>
-      </c>
       <c r="H81" t="s">
         <v>27</v>
       </c>
@@ -5706,22 +5922,22 @@
       <c r="P81" t="s">
         <v>27</v>
       </c>
-      <c r="Q81" s="56" t="s">
+      <c r="Q81" t="s">
         <v>5</v>
       </c>
-      <c r="R81" s="56">
+      <c r="R81">
         <v>-0.62324999999999997</v>
       </c>
-      <c r="S81" s="56">
+      <c r="S81">
         <v>1.8079999999999999E-2</v>
       </c>
-      <c r="T81" s="56">
+      <c r="T81">
         <v>3767.57818</v>
       </c>
-      <c r="U81" s="56">
+      <c r="U81">
         <v>-34.475000000000001</v>
       </c>
-      <c r="V81" s="56" t="s">
+      <c r="V81" t="s">
         <v>28</v>
       </c>
       <c r="W81" s="1">
@@ -5732,24 +5948,6 @@
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82">
-        <v>-6.241E-2</v>
-      </c>
-      <c r="C82">
-        <v>1.8149999999999999E-2</v>
-      </c>
-      <c r="D82">
-        <v>3772.0000199999999</v>
-      </c>
-      <c r="E82">
-        <v>-3.4380000000000002</v>
-      </c>
-      <c r="G82">
-        <v>5.9100000000000005E-4</v>
-      </c>
       <c r="H82" t="s">
         <v>27</v>
       </c>
@@ -5774,50 +5972,29 @@
       <c r="P82" t="s">
         <v>27</v>
       </c>
-      <c r="Q82" s="56" t="s">
+      <c r="Q82" t="s">
         <v>4</v>
       </c>
-      <c r="R82" s="56">
+      <c r="R82">
         <v>-4.0349999999999997E-2</v>
       </c>
-      <c r="S82" s="56">
+      <c r="S82">
         <v>1.866E-2</v>
       </c>
-      <c r="T82" s="56">
+      <c r="T82">
         <v>3795.1605</v>
       </c>
-      <c r="U82" s="56">
+      <c r="U82">
         <v>-2.1629999999999998</v>
       </c>
-      <c r="W82" s="56">
+      <c r="W82">
         <v>3.0620000000000001E-2</v>
       </c>
-      <c r="X82" s="56" t="s">
+      <c r="X82" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>30</v>
-      </c>
-      <c r="B83">
-        <v>-0.36254999999999998</v>
-      </c>
-      <c r="C83">
-        <v>2.5669999999999998E-2</v>
-      </c>
-      <c r="D83">
-        <v>3772.0000199999999</v>
-      </c>
-      <c r="E83">
-        <v>-14.125</v>
-      </c>
-      <c r="F83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" s="1">
-        <v>2E-16</v>
-      </c>
       <c r="H83" t="s">
         <v>27</v>
       </c>
@@ -5845,53 +6022,32 @@
       <c r="P83" t="s">
         <v>27</v>
       </c>
-      <c r="Q83" s="56" t="s">
+      <c r="Q83" t="s">
         <v>30</v>
       </c>
-      <c r="R83" s="56">
+      <c r="R83">
         <v>-0.35738999999999999</v>
       </c>
-      <c r="S83" s="56">
+      <c r="S83">
         <v>2.5669999999999998E-2</v>
       </c>
-      <c r="T83" s="56">
+      <c r="T83">
         <v>3771.6142500000001</v>
       </c>
-      <c r="U83" s="56">
+      <c r="U83">
         <v>-13.925000000000001</v>
       </c>
-      <c r="V83" s="56" t="s">
+      <c r="V83" t="s">
         <v>28</v>
       </c>
       <c r="W83" s="1">
         <v>2E-16</v>
       </c>
-      <c r="X83" s="56" t="s">
+      <c r="X83" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84">
-        <v>0.64698</v>
-      </c>
-      <c r="C84">
-        <v>2.5669999999999998E-2</v>
-      </c>
-      <c r="D84">
-        <v>3772.0000199999999</v>
-      </c>
-      <c r="E84">
-        <v>25.206</v>
-      </c>
-      <c r="F84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84" s="1">
-        <v>2E-16</v>
-      </c>
       <c r="H84" t="s">
         <v>27</v>
       </c>
@@ -5919,50 +6075,32 @@
       <c r="P84" t="s">
         <v>27</v>
       </c>
-      <c r="Q84" s="56" t="s">
+      <c r="Q84" t="s">
         <v>29</v>
       </c>
-      <c r="R84" s="56">
+      <c r="R84">
         <v>0.67093999999999998</v>
       </c>
-      <c r="S84" s="56">
+      <c r="S84">
         <v>2.5860000000000001E-2</v>
       </c>
-      <c r="T84" s="56">
+      <c r="T84">
         <v>3780.41779</v>
       </c>
-      <c r="U84" s="56">
+      <c r="U84">
         <v>25.940999999999999</v>
       </c>
-      <c r="V84" s="56" t="s">
+      <c r="V84" t="s">
         <v>28</v>
       </c>
       <c r="W84" s="1">
         <v>2E-16</v>
       </c>
-      <c r="X84" s="56" t="s">
+      <c r="X84" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85">
-        <v>7.1309999999999998E-2</v>
-      </c>
-      <c r="C85">
-        <v>2.5669999999999998E-2</v>
-      </c>
-      <c r="D85">
-        <v>3772.0000199999999</v>
-      </c>
-      <c r="E85">
-        <v>2.778</v>
-      </c>
-      <c r="G85">
-        <v>5.4920000000000004E-3</v>
-      </c>
       <c r="H85" t="s">
         <v>25</v>
       </c>
@@ -5987,29 +6125,47 @@
       <c r="P85" t="s">
         <v>25</v>
       </c>
-      <c r="Q85" s="56" t="s">
+      <c r="Q85" t="s">
         <v>26</v>
       </c>
-      <c r="R85" s="56">
+      <c r="R85">
         <v>7.041E-2</v>
       </c>
-      <c r="S85" s="56">
+      <c r="S85">
         <v>2.5569999999999999E-2</v>
       </c>
-      <c r="T85" s="56">
+      <c r="T85">
         <v>3767.5677900000001</v>
       </c>
-      <c r="U85" s="56">
+      <c r="U85">
         <v>2.7530000000000001</v>
       </c>
-      <c r="W85" s="56">
+      <c r="W85">
         <v>5.9300000000000004E-3</v>
       </c>
-      <c r="X85" s="56" t="s">
+      <c r="X85" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
       <c r="I86" s="2" t="s">
         <v>3</v>
       </c>
@@ -6032,25 +6188,25 @@
       <c r="P86" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q86" s="56" t="s">
+      <c r="Q86" t="s">
         <v>3</v>
       </c>
-      <c r="R86" s="56">
+      <c r="R86">
         <v>1.17378</v>
       </c>
-      <c r="S86" s="56">
+      <c r="S86">
         <v>0.13241</v>
       </c>
-      <c r="T86" s="56">
+      <c r="T86">
         <v>122.74672</v>
       </c>
-      <c r="U86" s="56">
+      <c r="U86">
         <v>8.8650000000000002</v>
       </c>
       <c r="W86" s="1">
         <v>7.3599999999999997E-15</v>
       </c>
-      <c r="X86" s="56" t="s">
+      <c r="X86" t="s">
         <v>27</v>
       </c>
       <c r="Z86" t="s">
@@ -6061,529 +6217,635 @@
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="Q87" s="56" t="s">
+      <c r="A87" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="12">
+        <v>2.2086700000000001</v>
+      </c>
+      <c r="C87" s="12">
+        <v>6.3619999999999996E-2</v>
+      </c>
+      <c r="D87" s="12">
+        <v>36.757800000000003</v>
+      </c>
+      <c r="E87" s="12">
+        <v>34.719000000000001</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="13">
+        <v>2E-16</v>
+      </c>
+      <c r="Q87" t="s">
         <v>234</v>
       </c>
-      <c r="R87" s="56">
+      <c r="R87">
         <v>-7.6249999999999998E-2</v>
       </c>
-      <c r="S87" s="56">
+      <c r="S87">
         <v>4.2380000000000001E-2</v>
       </c>
-      <c r="T87" s="56">
+      <c r="T87">
         <v>3887.8877299999999</v>
       </c>
-      <c r="U87" s="56">
+      <c r="U87">
         <v>-1.7989999999999999</v>
       </c>
-      <c r="W87" s="56">
+      <c r="W87">
         <v>7.2050000000000003E-2</v>
       </c>
       <c r="X87" t="s">
         <v>235</v>
       </c>
-      <c r="Z87" s="56" t="s">
+      <c r="Z87" t="s">
         <v>240</v>
       </c>
-      <c r="AA87" s="56">
+      <c r="AA87">
         <v>0.28844999999999998</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="Q88" s="56" t="s">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>-0.74809000000000003</v>
+      </c>
+      <c r="C88">
+        <v>1.8149999999999999E-2</v>
+      </c>
+      <c r="D88">
+        <v>3772.0000199999999</v>
+      </c>
+      <c r="E88">
+        <v>-41.216999999999999</v>
+      </c>
+      <c r="F88" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="Q88" t="s">
         <v>236</v>
       </c>
-      <c r="R88" s="56">
+      <c r="R88">
         <v>-0.35593999999999998</v>
       </c>
-      <c r="S88" s="56">
+      <c r="S88">
         <v>7.6770000000000005E-2</v>
       </c>
-      <c r="T88" s="56">
+      <c r="T88">
         <v>3702.6684100000002</v>
       </c>
-      <c r="U88" s="56">
+      <c r="U88">
         <v>-4.6360000000000001</v>
       </c>
       <c r="W88" s="1">
         <v>3.67E-6</v>
       </c>
-      <c r="X88" s="56" t="s">
+      <c r="X88" t="s">
         <v>27</v>
       </c>
-      <c r="Z88" s="56" t="s">
+      <c r="Z88" t="s">
         <v>241</v>
       </c>
-      <c r="AA88" s="56">
+      <c r="AA88">
         <v>0.85309999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="Q89" s="56" t="s">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>0.23773</v>
+      </c>
+      <c r="C89">
+        <v>1.8149999999999999E-2</v>
+      </c>
+      <c r="D89">
+        <v>3772.0000199999999</v>
+      </c>
+      <c r="E89">
+        <v>13.098000000000001</v>
+      </c>
+      <c r="F89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="Q89" t="s">
         <v>237</v>
       </c>
-      <c r="R89" s="56">
+      <c r="R89">
         <v>0.28844999999999998</v>
       </c>
-      <c r="S89" s="56">
+      <c r="S89">
         <v>6.9309999999999997E-2</v>
       </c>
-      <c r="T89" s="56">
+      <c r="T89">
         <v>3884.6501400000002</v>
       </c>
-      <c r="U89" s="56">
+      <c r="U89">
         <v>4.1619999999999999</v>
       </c>
       <c r="W89" s="1">
         <v>3.2299999999999999E-5</v>
       </c>
-      <c r="X89" s="56" t="s">
+      <c r="X89" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="Q90" s="56" t="s">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>-0.62507999999999997</v>
+      </c>
+      <c r="C90">
+        <v>1.8149999999999999E-2</v>
+      </c>
+      <c r="D90">
+        <v>3772.0000199999999</v>
+      </c>
+      <c r="E90">
+        <v>-34.44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="Q90" t="s">
         <v>238</v>
       </c>
-      <c r="R90" s="56">
+      <c r="R90">
         <v>0.85309999999999997</v>
       </c>
-      <c r="S90" s="56">
+      <c r="S90">
         <v>0.12227</v>
       </c>
-      <c r="T90" s="56">
+      <c r="T90">
         <v>3760.6021700000001</v>
       </c>
-      <c r="U90" s="56">
+      <c r="U90">
         <v>6.9770000000000003</v>
       </c>
       <c r="W90" s="1">
         <v>3.5399999999999999E-12</v>
       </c>
-      <c r="X90" s="56" t="s">
+      <c r="X90" t="s">
         <v>27</v>
       </c>
-      <c r="Y90" s="56"/>
-      <c r="Z90" s="56"/>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="Y91" s="56"/>
-      <c r="Z91" s="56"/>
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <v>-6.241E-2</v>
+      </c>
+      <c r="C91">
+        <v>1.8149999999999999E-2</v>
+      </c>
+      <c r="D91">
+        <v>3772.0000199999999</v>
+      </c>
+      <c r="E91">
+        <v>-3.4380000000000002</v>
+      </c>
+      <c r="G91">
+        <v>5.9100000000000005E-4</v>
+      </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="X92" s="56" t="s">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92">
+        <v>-0.36254999999999998</v>
+      </c>
+      <c r="C92">
+        <v>2.5669999999999998E-2</v>
+      </c>
+      <c r="D92">
+        <v>3772.0000199999999</v>
+      </c>
+      <c r="E92">
+        <v>-14.125</v>
+      </c>
+      <c r="F92" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2E-16</v>
+      </c>
+      <c r="X92" t="s">
         <v>27</v>
       </c>
-      <c r="Y92" s="56"/>
-      <c r="Z92" s="56"/>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="X93" s="56"/>
-      <c r="Y93" s="56"/>
-      <c r="Z93" s="56"/>
+      <c r="A93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93">
+        <v>0.64698</v>
+      </c>
+      <c r="C93">
+        <v>2.5669999999999998E-2</v>
+      </c>
+      <c r="D93">
+        <v>3772.0000199999999</v>
+      </c>
+      <c r="E93">
+        <v>25.206</v>
+      </c>
+      <c r="F93" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2E-16</v>
+      </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="X94" s="56"/>
-      <c r="Y94" s="56"/>
-      <c r="Z94" s="56"/>
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94">
+        <v>7.1309999999999998E-2</v>
+      </c>
+      <c r="C94">
+        <v>2.5669999999999998E-2</v>
+      </c>
+      <c r="D94">
+        <v>3772.0000199999999</v>
+      </c>
+      <c r="E94">
+        <v>2.778</v>
+      </c>
+      <c r="G94">
+        <v>5.4920000000000004E-3</v>
+      </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="Q95" s="56" t="s">
+      <c r="Q95" t="s">
         <v>31</v>
       </c>
-      <c r="R95" s="56">
+      <c r="R95">
         <v>1.46269</v>
       </c>
-      <c r="S95" s="56">
+      <c r="S95">
         <v>9.5060000000000006E-2</v>
       </c>
-      <c r="T95" s="56">
+      <c r="T95">
         <v>94.868440000000007</v>
       </c>
-      <c r="U95" s="56">
+      <c r="U95">
         <v>15.387</v>
       </c>
-      <c r="V95" s="56" t="s">
+      <c r="V95" t="s">
         <v>28</v>
       </c>
       <c r="W95" s="1">
         <v>2E-16</v>
       </c>
-      <c r="X95" s="56" t="s">
+      <c r="X95" t="s">
         <v>27</v>
       </c>
-      <c r="Y95" s="56"/>
-      <c r="Z95" s="56"/>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="Q96" s="56" t="s">
+      <c r="Q96" t="s">
         <v>7</v>
       </c>
-      <c r="R96" s="56">
+      <c r="R96">
         <v>-0.74168000000000001</v>
       </c>
-      <c r="S96" s="56">
+      <c r="S96">
         <v>1.8190000000000001E-2</v>
       </c>
-      <c r="T96" s="56">
+      <c r="T96">
         <v>3771.6179099999999</v>
       </c>
-      <c r="U96" s="56">
+      <c r="U96">
         <v>-40.781999999999996</v>
       </c>
-      <c r="V96" s="56" t="s">
+      <c r="V96" t="s">
         <v>28</v>
       </c>
       <c r="W96" s="1">
         <v>2E-16</v>
       </c>
-      <c r="X96" s="56" t="s">
+      <c r="X96" t="s">
         <v>27</v>
       </c>
-      <c r="Y96" s="56"/>
-      <c r="Z96" s="56"/>
     </row>
     <row r="97" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q97" s="56" t="s">
+      <c r="Q97" t="s">
         <v>6</v>
       </c>
-      <c r="R97" s="56">
+      <c r="R97">
         <v>0.25578000000000001</v>
       </c>
-      <c r="S97" s="56">
+      <c r="S97">
         <v>1.823E-2</v>
       </c>
-      <c r="T97" s="56">
+      <c r="T97">
         <v>3775.0900900000001</v>
       </c>
-      <c r="U97" s="56">
+      <c r="U97">
         <v>14.034000000000001</v>
       </c>
-      <c r="V97" s="56" t="s">
+      <c r="V97" t="s">
         <v>28</v>
       </c>
       <c r="W97" s="1">
         <v>2E-16</v>
       </c>
-      <c r="X97" s="56" t="s">
+      <c r="X97" t="s">
         <v>27</v>
       </c>
-      <c r="Y97" s="56"/>
-      <c r="Z97" s="56"/>
     </row>
     <row r="98" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q98" s="56" t="s">
+      <c r="Q98" t="s">
         <v>5</v>
       </c>
-      <c r="R98" s="56">
+      <c r="R98">
         <v>-0.62324999999999997</v>
       </c>
-      <c r="S98" s="56">
+      <c r="S98">
         <v>1.8079999999999999E-2</v>
       </c>
-      <c r="T98" s="56">
+      <c r="T98">
         <v>3767.57818</v>
       </c>
-      <c r="U98" s="56">
+      <c r="U98">
         <v>-34.475000000000001</v>
       </c>
-      <c r="V98" s="56" t="s">
+      <c r="V98" t="s">
         <v>28</v>
       </c>
       <c r="W98" s="1">
         <v>2E-16</v>
       </c>
-      <c r="X98" s="56" t="s">
+      <c r="X98" t="s">
         <v>27</v>
       </c>
-      <c r="Y98" s="56"/>
-      <c r="Z98" s="56"/>
     </row>
     <row r="99" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q99" s="56" t="s">
+      <c r="Q99" t="s">
         <v>4</v>
       </c>
-      <c r="R99" s="56">
+      <c r="R99">
         <v>-4.0349999999999997E-2</v>
       </c>
-      <c r="S99" s="56">
+      <c r="S99">
         <v>1.866E-2</v>
       </c>
-      <c r="T99" s="56">
+      <c r="T99">
         <v>3795.1605</v>
       </c>
-      <c r="U99" s="56">
+      <c r="U99">
         <v>-2.1629999999999998</v>
       </c>
-      <c r="V99" s="56">
+      <c r="V99">
         <v>3.0620000000000001E-2</v>
       </c>
-      <c r="W99" s="56" t="s">
+      <c r="W99" t="s">
         <v>72</v>
       </c>
-      <c r="X99" s="56"/>
-      <c r="Y99" s="56"/>
-      <c r="Z99" s="56"/>
     </row>
     <row r="100" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q100" s="56" t="s">
+      <c r="Q100" t="s">
         <v>3</v>
       </c>
-      <c r="R100" s="56">
+      <c r="R100">
         <v>1.17378</v>
       </c>
-      <c r="S100" s="56">
+      <c r="S100">
         <v>0.13241</v>
       </c>
-      <c r="T100" s="56">
+      <c r="T100">
         <v>122.74672</v>
       </c>
-      <c r="U100" s="56">
+      <c r="U100">
         <v>8.8650000000000002</v>
       </c>
       <c r="V100" s="1">
         <v>7.3599999999999997E-15</v>
       </c>
-      <c r="W100" s="56" t="s">
+      <c r="W100" t="s">
         <v>27</v>
       </c>
-      <c r="X100" s="56"/>
-      <c r="Y100" s="56"/>
-      <c r="Z100" s="56"/>
     </row>
     <row r="101" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q101" s="56" t="s">
+      <c r="Q101" t="s">
         <v>234</v>
       </c>
-      <c r="R101" s="56">
+      <c r="R101">
         <v>-7.6249999999999998E-2</v>
       </c>
-      <c r="S101" s="56">
+      <c r="S101">
         <v>4.2380000000000001E-2</v>
       </c>
-      <c r="T101" s="56">
+      <c r="T101">
         <v>3887.8877299999999</v>
       </c>
-      <c r="U101" s="56">
+      <c r="U101">
         <v>-1.7989999999999999</v>
       </c>
-      <c r="V101" s="56">
+      <c r="V101">
         <v>7.2050000000000003E-2</v>
       </c>
-      <c r="W101" s="56" t="s">
+      <c r="W101" t="s">
         <v>235</v>
       </c>
-      <c r="X101" s="56"/>
-      <c r="Y101" s="56"/>
-      <c r="Z101" s="56"/>
     </row>
     <row r="102" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q102" s="56" t="s">
+      <c r="Q102" t="s">
         <v>236</v>
       </c>
-      <c r="R102" s="56">
+      <c r="R102">
         <v>-0.35593999999999998</v>
       </c>
-      <c r="S102" s="56">
+      <c r="S102">
         <v>7.6770000000000005E-2</v>
       </c>
-      <c r="T102" s="56">
+      <c r="T102">
         <v>3702.6684100000002</v>
       </c>
-      <c r="U102" s="56">
+      <c r="U102">
         <v>-4.6360000000000001</v>
       </c>
       <c r="V102" s="1">
         <v>3.67E-6</v>
       </c>
-      <c r="W102" s="56" t="s">
+      <c r="W102" t="s">
         <v>27</v>
       </c>
-      <c r="X102" s="56"/>
-      <c r="Y102" s="56"/>
-      <c r="Z102" s="56"/>
     </row>
     <row r="103" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q103" s="56" t="s">
+      <c r="Q103" t="s">
         <v>30</v>
       </c>
-      <c r="R103" s="56">
+      <c r="R103">
         <v>-0.35738999999999999</v>
       </c>
-      <c r="S103" s="56">
+      <c r="S103">
         <v>2.5669999999999998E-2</v>
       </c>
-      <c r="T103" s="56">
+      <c r="T103">
         <v>3771.6142500000001</v>
       </c>
-      <c r="U103" s="56">
+      <c r="U103">
         <v>-13.925000000000001</v>
       </c>
-      <c r="V103" s="56" t="s">
+      <c r="V103" t="s">
         <v>28</v>
       </c>
       <c r="W103" s="1">
         <v>2E-16</v>
       </c>
-      <c r="X103" s="56" t="s">
+      <c r="X103" t="s">
         <v>27</v>
       </c>
-      <c r="Y103" s="56"/>
-      <c r="Z103" s="56"/>
     </row>
     <row r="104" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q104" s="56" t="s">
+      <c r="Q104" t="s">
         <v>29</v>
       </c>
-      <c r="R104" s="56">
+      <c r="R104">
         <v>0.67093999999999998</v>
       </c>
-      <c r="S104" s="56">
+      <c r="S104">
         <v>2.5860000000000001E-2</v>
       </c>
-      <c r="T104" s="56">
+      <c r="T104">
         <v>3780.41779</v>
       </c>
-      <c r="U104" s="56">
+      <c r="U104">
         <v>25.940999999999999</v>
       </c>
-      <c r="V104" s="56" t="s">
+      <c r="V104" t="s">
         <v>28</v>
       </c>
       <c r="W104" s="1">
         <v>2E-16</v>
       </c>
-      <c r="X104" s="56" t="s">
+      <c r="X104" t="s">
         <v>27</v>
       </c>
-      <c r="Y104" s="56"/>
-      <c r="Z104" s="56"/>
     </row>
     <row r="105" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q105" s="56" t="s">
+      <c r="Q105" t="s">
         <v>26</v>
       </c>
-      <c r="R105" s="56">
+      <c r="R105">
         <v>7.041E-2</v>
       </c>
-      <c r="S105" s="56">
+      <c r="S105">
         <v>2.5569999999999999E-2</v>
       </c>
-      <c r="T105" s="56">
+      <c r="T105">
         <v>3767.5677900000001</v>
       </c>
-      <c r="U105" s="56">
+      <c r="U105">
         <v>2.7530000000000001</v>
       </c>
-      <c r="V105" s="56">
+      <c r="V105">
         <v>5.9300000000000004E-3</v>
       </c>
-      <c r="W105" s="56" t="s">
+      <c r="W105" t="s">
         <v>25</v>
       </c>
-      <c r="X105" s="56"/>
-      <c r="Y105" s="56"/>
-      <c r="Z105" s="56"/>
     </row>
     <row r="106" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q106" s="56" t="s">
+      <c r="Q106" t="s">
         <v>237</v>
       </c>
-      <c r="R106" s="56">
+      <c r="R106">
         <v>0.28844999999999998</v>
       </c>
-      <c r="S106" s="56">
+      <c r="S106">
         <v>6.9309999999999997E-2</v>
       </c>
-      <c r="T106" s="56">
+      <c r="T106">
         <v>3884.6501400000002</v>
       </c>
-      <c r="U106" s="56">
+      <c r="U106">
         <v>4.1619999999999999</v>
       </c>
       <c r="V106" s="1">
         <v>3.2299999999999999E-5</v>
       </c>
-      <c r="W106" s="56" t="s">
+      <c r="W106" t="s">
         <v>27</v>
       </c>
-      <c r="X106" s="56"/>
-      <c r="Y106" s="56"/>
-      <c r="Z106" s="56"/>
     </row>
     <row r="107" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q107" s="56" t="s">
+      <c r="Q107" t="s">
         <v>238</v>
       </c>
-      <c r="R107" s="56">
+      <c r="R107">
         <v>0.85309999999999997</v>
       </c>
-      <c r="S107" s="56">
+      <c r="S107">
         <v>0.12227</v>
       </c>
-      <c r="T107" s="56">
+      <c r="T107">
         <v>3760.6021700000001</v>
       </c>
-      <c r="U107" s="56">
+      <c r="U107">
         <v>6.9770000000000003</v>
       </c>
       <c r="V107" s="1">
         <v>3.5399999999999999E-12</v>
       </c>
-      <c r="W107" s="56" t="s">
+      <c r="W107" t="s">
         <v>27</v>
       </c>
-      <c r="X107" s="56"/>
-      <c r="Y107" s="56"/>
-      <c r="Z107" s="56"/>
     </row>
     <row r="108" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q108" s="56" t="s">
+      <c r="Q108" t="s">
         <v>24</v>
       </c>
-      <c r="R108" s="56"/>
-      <c r="S108" s="56"/>
-      <c r="T108" s="56"/>
-      <c r="U108" s="56"/>
-      <c r="V108" s="56"/>
-      <c r="W108" s="56"/>
-      <c r="X108" s="56"/>
-      <c r="Y108" s="56"/>
-      <c r="Z108" s="56"/>
     </row>
     <row r="109" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Q109" s="56" t="s">
+      <c r="Q109" t="s">
         <v>23</v>
       </c>
-      <c r="R109" s="56" t="s">
+      <c r="R109" t="s">
         <v>22</v>
       </c>
-      <c r="S109" s="56">
+      <c r="S109">
         <v>0</v>
       </c>
-      <c r="T109" s="56" t="s">
+      <c r="T109" t="s">
         <v>21</v>
       </c>
-      <c r="U109" s="56">
+      <c r="U109">
         <v>1E-3</v>
       </c>
-      <c r="V109" s="56" t="s">
+      <c r="V109" t="s">
         <v>20</v>
       </c>
-      <c r="W109" s="56">
+      <c r="W109">
         <v>0.01</v>
       </c>
-      <c r="X109" s="56" t="s">
+      <c r="X109" t="s">
         <v>19</v>
       </c>
-      <c r="Y109" s="56"/>
-      <c r="Z109" s="56"/>
     </row>
     <row r="110" spans="17:26" x14ac:dyDescent="0.3">
-      <c r="Y110" s="56">
+      <c r="Y110">
         <v>0.05</v>
       </c>
-      <c r="Z110" s="56" t="s">
+      <c r="Z110" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8673,2064 +8935,2061 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2BBBD3-A326-4619-9F79-F4936C420D68}">
   <dimension ref="A1:AJ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="56" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="56" customWidth="1"/>
-    <col min="4" max="14" width="8.88671875" style="56"/>
-    <col min="15" max="15" width="8.88671875" style="57"/>
-    <col min="16" max="16" width="20.33203125" style="56" customWidth="1"/>
-    <col min="17" max="27" width="8.88671875" style="56"/>
-    <col min="28" max="28" width="13.33203125" style="56" customWidth="1"/>
-    <col min="29" max="29" width="14.33203125" style="56" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="56"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="50"/>
+    <col min="16" max="16" width="20.33203125" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="56" t="s">
+      <c r="P1" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="56" t="s">
+      <c r="V1" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="56" t="s">
+      <c r="W1" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="X1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="56" t="s">
+      <c r="Z1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="56" t="s">
+      <c r="S2" t="s">
         <v>73</v>
       </c>
-      <c r="T2" s="56" t="s">
+      <c r="T2" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="56" t="s">
+      <c r="V2" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="W2" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="X2" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" t="s">
         <v>116</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="56" t="s">
+      <c r="AA2" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AB2" t="s">
         <v>67</v>
       </c>
-      <c r="AC2" s="56" t="s">
+      <c r="AC2" t="s">
         <v>70</v>
       </c>
-      <c r="AD2" s="56" t="s">
+      <c r="AD2" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="56" t="s">
+      <c r="AE2" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="56" t="s">
+      <c r="AF2" t="s">
         <v>67</v>
       </c>
-      <c r="AG2" s="56" t="s">
+      <c r="AG2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="56" t="s">
+      <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="56" t="s">
+      <c r="R3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5">
         <v>498.9</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="56" t="s">
+      <c r="Q5" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="56" t="s">
+      <c r="R5" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="56" t="s">
+      <c r="S5" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="56">
+      <c r="T5">
         <v>1781.5</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="56" t="s">
+      <c r="P7" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="56" t="s">
+      <c r="Q7" t="s">
         <v>58</v>
       </c>
-      <c r="AC7" s="56" t="s">
+      <c r="AC7" t="s">
         <v>103</v>
       </c>
-      <c r="AD7" s="56" t="s">
+      <c r="AD7" t="s">
         <v>139</v>
       </c>
-      <c r="AE7" s="56" t="s">
+      <c r="AE7" t="s">
         <v>140</v>
       </c>
-      <c r="AF7" s="56" t="s">
+      <c r="AF7" t="s">
         <v>141</v>
       </c>
-      <c r="AG7" s="56" t="s">
+      <c r="AG7" t="s">
         <v>140</v>
       </c>
-      <c r="AH7" s="56" t="s">
+      <c r="AH7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B8" s="56" t="s">
+      <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="56" t="s">
+      <c r="Q8" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="56" t="s">
+      <c r="R8" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="56" t="s">
+      <c r="S8" t="s">
         <v>55</v>
       </c>
-      <c r="T8" s="56" t="s">
+      <c r="T8" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="56" t="s">
+      <c r="U8" t="s">
         <v>53</v>
       </c>
-      <c r="AB8" s="56" t="s">
+      <c r="AB8" t="s">
         <v>73</v>
       </c>
-      <c r="AC8" s="56">
+      <c r="AC8">
         <v>1</v>
       </c>
-      <c r="AD8" s="56">
+      <c r="AD8">
         <v>424.1</v>
       </c>
-      <c r="AE8" s="56">
+      <c r="AE8">
         <v>424.1</v>
       </c>
-      <c r="AF8" s="56">
+      <c r="AF8">
         <v>1791.4</v>
       </c>
-      <c r="AG8" s="56" t="s">
+      <c r="AG8" t="s">
         <v>105</v>
       </c>
-      <c r="AH8" s="56" t="s">
+      <c r="AH8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B9" s="56">
+      <c r="B9">
         <v>-3.3942000000000001</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9">
         <v>-0.54969999999999997</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9">
         <v>-1.6000000000000001E-3</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9">
         <v>0.56630000000000003</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9">
         <v>4.6517999999999997</v>
       </c>
-      <c r="P9" s="56">
+      <c r="P9">
         <v>-2.9946000000000002</v>
       </c>
-      <c r="Q9" s="56">
+      <c r="Q9">
         <v>-0.61560000000000004</v>
       </c>
-      <c r="R9" s="56">
+      <c r="R9">
         <v>-4.2900000000000001E-2</v>
       </c>
-      <c r="S9" s="56">
+      <c r="S9">
         <v>0.6018</v>
       </c>
-      <c r="T9" s="56">
+      <c r="T9">
         <v>5.2035</v>
       </c>
-      <c r="AB9" s="56" t="s">
+      <c r="AB9" t="s">
         <v>71</v>
       </c>
-      <c r="AC9" s="56">
+      <c r="AC9">
         <v>3</v>
       </c>
-      <c r="AD9" s="56">
+      <c r="AD9">
         <v>74.5</v>
       </c>
-      <c r="AE9" s="56">
+      <c r="AE9">
         <v>24.8</v>
       </c>
-      <c r="AF9" s="56">
+      <c r="AF9">
         <v>105</v>
       </c>
-      <c r="AG9" s="56" t="s">
+      <c r="AG9" t="s">
         <v>105</v>
       </c>
-      <c r="AH9" s="56" t="s">
+      <c r="AH9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="AB10" s="56" t="s">
+      <c r="AB10" t="s">
         <v>3</v>
       </c>
-      <c r="AC10" s="56">
+      <c r="AC10">
         <v>1</v>
       </c>
-      <c r="AD10" s="56">
+      <c r="AD10">
         <v>555.1</v>
       </c>
-      <c r="AE10" s="56">
+      <c r="AE10">
         <v>555.1</v>
       </c>
-      <c r="AF10" s="56">
+      <c r="AF10">
         <v>2344.9</v>
       </c>
-      <c r="AG10" s="56" t="s">
+      <c r="AG10" t="s">
         <v>105</v>
       </c>
-      <c r="AH10" s="56" t="s">
+      <c r="AH10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="56" t="s">
+      <c r="P11" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" s="56" t="s">
+      <c r="Q11" t="s">
         <v>37</v>
       </c>
-      <c r="AB11" s="56" t="s">
+      <c r="AB11" t="s">
         <v>116</v>
       </c>
-      <c r="AC11" s="56">
+      <c r="AC11">
         <v>2</v>
       </c>
-      <c r="AD11" s="56">
+      <c r="AD11">
         <v>93.6</v>
       </c>
-      <c r="AE11" s="56">
+      <c r="AE11">
         <v>46.8</v>
       </c>
-      <c r="AF11" s="56">
+      <c r="AF11">
         <v>197.7</v>
       </c>
-      <c r="AG11" s="56" t="s">
+      <c r="AG11" t="s">
         <v>105</v>
       </c>
-      <c r="AH11" s="56" t="s">
+      <c r="AH11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" s="56" t="s">
+      <c r="Q12" t="s">
         <v>51</v>
       </c>
-      <c r="R12" s="56" t="s">
+      <c r="R12" t="s">
         <v>50</v>
       </c>
-      <c r="S12" s="56" t="s">
+      <c r="S12" t="s">
         <v>49</v>
       </c>
-      <c r="T12" s="56" t="s">
+      <c r="T12" t="s">
         <v>48</v>
       </c>
-      <c r="AB12" s="56" t="s">
+      <c r="AB12" t="s">
         <v>106</v>
       </c>
-      <c r="AC12" s="56">
+      <c r="AC12">
         <v>3</v>
       </c>
-      <c r="AD12" s="56">
+      <c r="AD12">
         <v>142.1</v>
       </c>
-      <c r="AE12" s="56">
+      <c r="AE12">
         <v>47.4</v>
       </c>
-      <c r="AF12" s="56">
+      <c r="AF12">
         <v>200.2</v>
       </c>
-      <c r="AG12" s="56" t="s">
+      <c r="AG12" t="s">
         <v>105</v>
       </c>
-      <c r="AH12" s="56" t="s">
+      <c r="AH12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B13" s="56" t="s">
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13">
         <v>0.17716999999999999</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13">
         <v>0.4209</v>
       </c>
-      <c r="Q13" s="56" t="s">
+      <c r="Q13" t="s">
         <v>47</v>
       </c>
-      <c r="R13" s="56" t="s">
+      <c r="R13" t="s">
         <v>31</v>
       </c>
-      <c r="S13" s="56">
+      <c r="S13">
         <v>0.18008299999999999</v>
       </c>
-      <c r="T13" s="56">
+      <c r="T13">
         <v>0.42436000000000001</v>
       </c>
-      <c r="AB13" s="56" t="s">
+      <c r="AB13" t="s">
         <v>233</v>
       </c>
-      <c r="AC13" s="56">
+      <c r="AC13">
         <v>2</v>
       </c>
-      <c r="AD13" s="56">
+      <c r="AD13">
         <v>81.8</v>
       </c>
-      <c r="AE13" s="56">
+      <c r="AE13">
         <v>40.9</v>
       </c>
-      <c r="AF13" s="56">
+      <c r="AF13">
         <v>172.8</v>
       </c>
-      <c r="AG13" s="56" t="s">
+      <c r="AG13" t="s">
         <v>105</v>
       </c>
-      <c r="AH13" s="56" t="s">
+      <c r="AH13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14">
         <v>6.3369999999999996E-2</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14">
         <v>0.25169999999999998</v>
       </c>
-      <c r="Q14" s="56" t="s">
+      <c r="Q14" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="56" t="s">
+      <c r="R14" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="56">
+      <c r="S14">
         <v>4.1780000000000003E-3</v>
       </c>
-      <c r="T14" s="56">
+      <c r="T14">
         <v>6.4640000000000003E-2</v>
       </c>
-      <c r="AB14" s="56" t="s">
+      <c r="AB14" t="s">
         <v>107</v>
       </c>
-      <c r="AC14" s="56">
+      <c r="AC14">
         <v>3891</v>
       </c>
-      <c r="AD14" s="56">
+      <c r="AD14">
         <v>921.1</v>
       </c>
-      <c r="AE14" s="56">
+      <c r="AE14">
         <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15">
         <v>122</v>
       </c>
-      <c r="Q15" s="56" t="s">
+      <c r="Q15" t="s">
         <v>45</v>
       </c>
-      <c r="R15" s="56">
+      <c r="R15">
         <v>7.9358999999999999E-2</v>
       </c>
-      <c r="S15" s="56">
+      <c r="S15">
         <v>0.28171000000000002</v>
       </c>
-      <c r="AB15" s="56" t="s">
+      <c r="AB15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="P16" s="56" t="s">
+      <c r="P16" t="s">
         <v>44</v>
       </c>
-      <c r="Q16" s="56" t="s">
+      <c r="Q16" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="56" t="s">
+      <c r="R16" t="s">
         <v>43</v>
       </c>
-      <c r="S16" s="56" t="s">
+      <c r="S16" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="56" t="s">
+      <c r="T16" t="s">
         <v>41</v>
       </c>
-      <c r="U16" s="56" t="s">
+      <c r="U16" t="s">
         <v>40</v>
       </c>
-      <c r="V16" s="56" t="s">
+      <c r="V16" t="s">
         <v>39</v>
       </c>
-      <c r="W16" s="56" t="s">
+      <c r="W16" t="s">
         <v>38</v>
       </c>
-      <c r="X16" s="56">
+      <c r="X16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="AD17" s="56" t="s">
+      <c r="AD17" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B18" s="56" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="56" t="s">
+      <c r="P18" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="56" t="s">
+      <c r="Q18" t="s">
         <v>37</v>
       </c>
-      <c r="AC18" s="56" t="s">
+      <c r="AC18" t="s">
         <v>73</v>
       </c>
-      <c r="AD18" s="56">
-        <f>AD8/$AE$18</f>
+      <c r="AD18">
+        <f t="shared" ref="AD18:AD24" si="0">AD8/$AE$18</f>
         <v>0.18501068795532874</v>
       </c>
-      <c r="AE18" s="56">
+      <c r="AE18">
         <f>SUM(AD8:AD14)</f>
         <v>2292.2999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="56">
+      <c r="B19">
         <v>0.91449999999999998</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19">
         <v>0.10774</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19">
         <v>189.39247</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19">
         <v>8.4879999999999995</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19">
         <v>5.9899999999999999E-15</v>
       </c>
-      <c r="H19" s="56" t="s">
+      <c r="H19" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="Q19" s="56" t="s">
+      <c r="I19" s="2"/>
+      <c r="Q19" t="s">
         <v>36</v>
       </c>
-      <c r="R19" s="56" t="s">
+      <c r="R19" t="s">
         <v>222</v>
       </c>
-      <c r="S19" s="56" t="s">
+      <c r="S19" t="s">
         <v>223</v>
       </c>
-      <c r="T19" s="56" t="s">
+      <c r="T19" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="56" t="s">
+      <c r="U19" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="56" t="s">
+      <c r="V19" t="s">
         <v>33</v>
       </c>
-      <c r="W19" s="56" t="s">
+      <c r="W19" t="s">
         <v>32</v>
       </c>
-      <c r="AC19" s="56" t="s">
+      <c r="AC19" t="s">
         <v>71</v>
       </c>
-      <c r="AD19" s="56">
-        <f>AD9/$AE$18</f>
+      <c r="AD19">
+        <f t="shared" si="0"/>
         <v>3.2500109060768667E-2</v>
       </c>
-      <c r="AE19" s="56">
+      <c r="AE19">
         <f>SUM(AD18:AD23)</f>
         <v>0.59817650394799993</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20">
         <v>-0.53527999999999998</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20">
         <v>3.236E-2</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20">
         <v>850.69543999999996</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20">
         <v>-16.54</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20">
         <v>2E-16</v>
       </c>
-      <c r="H20" s="56" t="s">
+      <c r="H20" t="s">
         <v>27</v>
       </c>
-      <c r="P20" s="56" t="s">
+      <c r="P20" t="s">
         <v>31</v>
       </c>
-      <c r="Q20" s="56">
+      <c r="Q20">
         <v>1.46269</v>
       </c>
-      <c r="R20" s="56">
+      <c r="R20">
         <v>9.5060000000000006E-2</v>
       </c>
-      <c r="S20" s="56">
+      <c r="S20">
         <v>94.868440000000007</v>
       </c>
-      <c r="T20" s="56">
+      <c r="T20">
         <v>15.387</v>
       </c>
-      <c r="U20" s="56" t="s">
+      <c r="U20" t="s">
         <v>28</v>
       </c>
       <c r="V20" s="1">
         <v>2E-16</v>
       </c>
-      <c r="W20" s="56" t="s">
+      <c r="W20" t="s">
         <v>27</v>
       </c>
-      <c r="AC20" s="56" t="s">
+      <c r="AC20" t="s">
         <v>3</v>
       </c>
-      <c r="AD20" s="56">
-        <f>AD10/$AE$18</f>
+      <c r="AD20">
+        <f t="shared" si="0"/>
         <v>0.24215853073332463</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="56" t="s">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="56">
+      <c r="B21">
         <v>0.57833999999999997</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21">
         <v>3.2980000000000002E-2</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21">
         <v>876.03045999999995</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21">
         <v>17.536000000000001</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21">
         <v>2E-16</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="H21" t="s">
         <v>27</v>
       </c>
-      <c r="P21" s="56" t="s">
+      <c r="P21" t="s">
         <v>7</v>
       </c>
-      <c r="Q21" s="56">
+      <c r="Q21">
         <v>-0.74168000000000001</v>
       </c>
-      <c r="R21" s="56">
+      <c r="R21">
         <v>1.8190000000000001E-2</v>
       </c>
-      <c r="S21" s="56">
+      <c r="S21">
         <v>3771.6179099999999</v>
       </c>
-      <c r="T21" s="56">
+      <c r="T21">
         <v>-40.781999999999996</v>
       </c>
-      <c r="U21" s="56" t="s">
+      <c r="U21" t="s">
         <v>28</v>
       </c>
       <c r="V21" s="1">
         <v>2E-16</v>
       </c>
-      <c r="W21" s="56" t="s">
+      <c r="W21" t="s">
         <v>27</v>
       </c>
-      <c r="AC21" s="56" t="s">
+      <c r="AC21" t="s">
         <v>88</v>
       </c>
-      <c r="AD21" s="56">
-        <f>AD11/$AE$18</f>
+      <c r="AD21">
+        <f t="shared" si="0"/>
         <v>4.0832351786415394E-2</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="56" t="s">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="56">
+      <c r="B22">
         <v>-0.38711000000000001</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22">
         <v>3.2570000000000002E-2</v>
       </c>
-      <c r="D22" s="56">
+      <c r="D22">
         <v>859.42786000000001</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22">
         <v>-11.887</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22">
         <v>2E-16</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="H22" t="s">
         <v>27</v>
       </c>
-      <c r="P22" s="56" t="s">
+      <c r="P22" t="s">
         <v>6</v>
       </c>
-      <c r="Q22" s="56">
+      <c r="Q22">
         <v>0.25578000000000001</v>
       </c>
-      <c r="R22" s="56">
+      <c r="R22">
         <v>1.823E-2</v>
       </c>
-      <c r="S22" s="56">
+      <c r="S22">
         <v>3775.0900900000001</v>
       </c>
-      <c r="T22" s="56">
+      <c r="T22">
         <v>14.034000000000001</v>
       </c>
-      <c r="U22" s="56" t="s">
+      <c r="U22" t="s">
         <v>28</v>
       </c>
       <c r="V22" s="1">
         <v>2E-16</v>
       </c>
-      <c r="W22" s="56" t="s">
+      <c r="W22" t="s">
         <v>27</v>
       </c>
-      <c r="AC22" s="56" t="s">
+      <c r="AC22" t="s">
         <v>106</v>
       </c>
-      <c r="AD22" s="56">
-        <f>AD12/$AE$18</f>
+      <c r="AD22">
+        <f t="shared" si="0"/>
         <v>6.1990140906513114E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="56">
+      <c r="B23">
         <v>0.20652999999999999</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23">
         <v>897.98567000000003</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23">
         <v>6.1470000000000002</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G23">
         <v>1.19E-9</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" t="s">
         <v>27</v>
       </c>
-      <c r="P23" s="56" t="s">
+      <c r="P23" t="s">
         <v>5</v>
       </c>
-      <c r="Q23" s="56">
+      <c r="Q23">
         <v>-0.62324999999999997</v>
       </c>
-      <c r="R23" s="56">
+      <c r="R23">
         <v>1.8079999999999999E-2</v>
       </c>
-      <c r="S23" s="56">
+      <c r="S23">
         <v>3767.57818</v>
       </c>
-      <c r="T23" s="56">
+      <c r="T23">
         <v>-34.475000000000001</v>
       </c>
-      <c r="U23" s="56" t="s">
+      <c r="U23" t="s">
         <v>28</v>
       </c>
       <c r="V23" s="1">
         <v>2E-16</v>
       </c>
-      <c r="W23" s="56" t="s">
+      <c r="W23" t="s">
         <v>27</v>
       </c>
-      <c r="AC23" s="56" t="s">
+      <c r="AC23" t="s">
         <v>224</v>
       </c>
-      <c r="AD23" s="56">
-        <f>AD13/$AE$18</f>
+      <c r="AD23">
+        <f t="shared" si="0"/>
         <v>3.5684683505649351E-2</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="2">
         <v>1.3963099999999999</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C24" s="2">
         <v>0.13278000000000001</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="2">
         <v>119.83244999999999</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="2">
         <v>10.516</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="58">
+      <c r="G24" s="2">
         <v>2E-16</v>
       </c>
-      <c r="H24" s="56" t="s">
+      <c r="H24" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="56" t="s">
+      <c r="P24" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="56">
+      <c r="Q24">
         <v>-4.0349999999999997E-2</v>
       </c>
-      <c r="R24" s="56">
+      <c r="R24">
         <v>1.866E-2</v>
       </c>
-      <c r="S24" s="56">
+      <c r="S24">
         <v>3795.1605</v>
       </c>
-      <c r="T24" s="56">
+      <c r="T24">
         <v>-2.1629999999999998</v>
       </c>
-      <c r="U24" s="56">
+      <c r="U24">
         <v>3.0620000000000001E-2</v>
       </c>
-      <c r="V24" s="56" t="s">
+      <c r="V24" t="s">
         <v>72</v>
       </c>
-      <c r="AC24" s="56" t="s">
+      <c r="AC24" t="s">
         <v>107</v>
       </c>
-      <c r="AD24" s="56">
-        <f>AD14/$AE$18</f>
+      <c r="AD24">
+        <f t="shared" si="0"/>
         <v>0.40182349605200024</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="58">
+      <c r="B25" s="2">
         <v>0.70145999999999997</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="2">
         <v>0.12182</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="2">
         <v>525.08465999999999</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="2">
         <v>5.758</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
         <v>1.4500000000000001E-8</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" t="s">
         <v>27</v>
       </c>
-      <c r="P25" s="56" t="s">
+      <c r="P25" t="s">
         <v>3</v>
       </c>
-      <c r="Q25" s="56">
+      <c r="Q25">
         <v>1.17378</v>
       </c>
-      <c r="R25" s="56">
+      <c r="R25">
         <v>0.13241</v>
       </c>
-      <c r="S25" s="56">
+      <c r="S25">
         <v>122.74672</v>
       </c>
-      <c r="T25" s="56">
+      <c r="T25">
         <v>8.8650000000000002</v>
       </c>
       <c r="U25" s="1">
         <v>7.3599999999999997E-15</v>
       </c>
-      <c r="V25" s="56" t="s">
+      <c r="V25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="56">
+      <c r="B26">
         <v>-0.57589000000000001</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26">
         <v>4.5580000000000002E-2</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26">
         <v>844.90785000000005</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26">
         <v>-12.634</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="F26" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G26">
         <v>2E-16</v>
       </c>
-      <c r="H26" s="56" t="s">
+      <c r="H26" t="s">
         <v>27</v>
       </c>
-      <c r="P26" s="56" t="s">
+      <c r="P26" t="s">
         <v>234</v>
       </c>
-      <c r="Q26" s="56">
+      <c r="Q26">
         <v>-7.6249999999999998E-2</v>
       </c>
-      <c r="R26" s="56">
+      <c r="R26">
         <v>4.2380000000000001E-2</v>
       </c>
-      <c r="S26" s="56">
+      <c r="S26">
         <v>3887.8877299999999</v>
       </c>
-      <c r="T26" s="56">
+      <c r="T26">
         <v>-1.7989999999999999</v>
       </c>
-      <c r="U26" s="56">
+      <c r="U26">
         <v>7.2050000000000003E-2</v>
       </c>
-      <c r="V26" s="56" t="s">
+      <c r="V26" t="s">
         <v>235</v>
       </c>
-      <c r="AC26" s="56">
+      <c r="AC26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27">
         <v>0.49547999999999998</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27">
         <v>4.7230000000000001E-2</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27">
         <v>891.05115999999998</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27">
         <v>10.492000000000001</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27">
         <v>2E-16</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="H27" t="s">
         <v>27</v>
       </c>
-      <c r="P27" s="56" t="s">
+      <c r="P27" t="s">
         <v>236</v>
       </c>
-      <c r="Q27" s="56">
+      <c r="Q27">
         <v>-0.35593999999999998</v>
       </c>
-      <c r="R27" s="56">
+      <c r="R27">
         <v>7.6770000000000005E-2</v>
       </c>
-      <c r="S27" s="56">
+      <c r="S27">
         <v>3702.6684100000002</v>
       </c>
-      <c r="T27" s="56">
+      <c r="T27">
         <v>-4.6360000000000001</v>
       </c>
       <c r="U27" s="1">
         <v>3.67E-6</v>
       </c>
-      <c r="V27" s="56" t="s">
+      <c r="V27" t="s">
         <v>27</v>
       </c>
-      <c r="AC27" s="56">
+      <c r="AC27">
         <v>-7.6249999999999998E-2</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A28" s="56" t="s">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28">
         <v>0.10746</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28">
         <v>4.5679999999999998E-2</v>
       </c>
-      <c r="D28" s="56">
+      <c r="D28">
         <v>848.06529</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28">
         <v>2.3519999999999999</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28">
         <v>1.89E-2</v>
       </c>
-      <c r="H28" s="56" t="s">
+      <c r="H28" t="s">
         <v>72</v>
       </c>
-      <c r="P28" s="56" t="s">
+      <c r="P28" t="s">
         <v>30</v>
       </c>
-      <c r="Q28" s="56">
+      <c r="Q28">
         <v>-0.35738999999999999</v>
       </c>
-      <c r="R28" s="56">
+      <c r="R28">
         <v>2.5669999999999998E-2</v>
       </c>
-      <c r="S28" s="56">
+      <c r="S28">
         <v>3771.6142500000001</v>
       </c>
-      <c r="T28" s="56">
+      <c r="T28">
         <v>-13.925000000000001</v>
       </c>
-      <c r="U28" s="56" t="s">
+      <c r="U28" t="s">
         <v>28</v>
       </c>
       <c r="V28" s="1">
         <v>2E-16</v>
       </c>
-      <c r="W28" s="56" t="s">
+      <c r="W28" t="s">
         <v>27</v>
       </c>
-      <c r="AC28" s="56">
+      <c r="AC28">
         <v>-0.35593999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="56" t="s">
+      <c r="P29" t="s">
         <v>29</v>
       </c>
-      <c r="Q29" s="56">
+      <c r="Q29">
         <v>0.67093999999999998</v>
       </c>
-      <c r="R29" s="56">
+      <c r="R29">
         <v>2.5860000000000001E-2</v>
       </c>
-      <c r="S29" s="56">
+      <c r="S29">
         <v>3780.41779</v>
       </c>
-      <c r="T29" s="56">
+      <c r="T29">
         <v>25.940999999999999</v>
       </c>
-      <c r="U29" s="56" t="s">
+      <c r="U29" t="s">
         <v>28</v>
       </c>
       <c r="V29" s="1">
         <v>2E-16</v>
       </c>
-      <c r="W29" s="56" t="s">
+      <c r="W29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A30" s="56" t="s">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30">
         <v>1E-3</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30">
         <v>0.01</v>
       </c>
-      <c r="H30" s="56" t="s">
+      <c r="H30" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I30">
         <v>0.05</v>
       </c>
-      <c r="J30" s="56" t="s">
+      <c r="J30" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="56">
+      <c r="K30">
         <v>0.1</v>
       </c>
-      <c r="L30" s="56" t="s">
+      <c r="L30" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="56" t="s">
+      <c r="M30" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="56">
+      <c r="N30">
         <v>1</v>
       </c>
-      <c r="P30" s="56" t="s">
+      <c r="P30" t="s">
         <v>26</v>
       </c>
-      <c r="Q30" s="56">
+      <c r="Q30">
         <v>7.041E-2</v>
       </c>
-      <c r="R30" s="56">
+      <c r="R30">
         <v>2.5569999999999999E-2</v>
       </c>
-      <c r="S30" s="56">
+      <c r="S30">
         <v>3767.5677900000001</v>
       </c>
-      <c r="T30" s="56">
+      <c r="T30">
         <v>2.7530000000000001</v>
       </c>
-      <c r="U30" s="56">
+      <c r="U30">
         <v>5.9300000000000004E-3</v>
       </c>
-      <c r="V30" s="56" t="s">
+      <c r="V30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="P31" s="56" t="s">
+      <c r="P31" t="s">
         <v>237</v>
       </c>
-      <c r="Q31" s="56">
+      <c r="Q31">
         <v>0.28844999999999998</v>
       </c>
-      <c r="R31" s="56">
+      <c r="R31">
         <v>6.9309999999999997E-2</v>
       </c>
-      <c r="S31" s="56">
+      <c r="S31">
         <v>3884.6501400000002</v>
       </c>
-      <c r="T31" s="56">
+      <c r="T31">
         <v>4.1619999999999999</v>
       </c>
       <c r="U31" s="1">
         <v>3.2299999999999999E-5</v>
       </c>
-      <c r="V31" s="56" t="s">
+      <c r="V31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A32" s="56" t="s">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="P32" s="56" t="s">
+      <c r="P32" t="s">
         <v>238</v>
       </c>
-      <c r="Q32" s="56">
+      <c r="Q32">
         <v>0.85309999999999997</v>
       </c>
-      <c r="R32" s="56">
+      <c r="R32">
         <v>0.12227</v>
       </c>
-      <c r="S32" s="56">
+      <c r="S32">
         <v>3760.6021700000001</v>
       </c>
-      <c r="T32" s="56">
+      <c r="T32">
         <v>6.9770000000000003</v>
       </c>
       <c r="U32" s="1">
         <v>3.5399999999999999E-12</v>
       </c>
-      <c r="V32" s="56" t="s">
+      <c r="V32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B33" s="56" t="s">
+      <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="56" t="s">
+      <c r="E33" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="56" t="s">
+      <c r="H33" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="56" t="s">
+      <c r="I33" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="56" t="s">
+      <c r="J33" t="s">
         <v>8</v>
       </c>
-      <c r="P33" s="56" t="s">
+      <c r="P33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A34" s="56" t="s">
+      <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="56">
+      <c r="B34">
         <v>-0.19900000000000001</v>
       </c>
-      <c r="P34" s="56" t="s">
+      <c r="P34" t="s">
         <v>23</v>
       </c>
-      <c r="Q34" s="56" t="s">
+      <c r="Q34" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="56">
+      <c r="R34">
         <v>0</v>
       </c>
-      <c r="S34" s="56" t="s">
+      <c r="S34" t="s">
         <v>21</v>
       </c>
-      <c r="T34" s="56">
+      <c r="T34">
         <v>1E-3</v>
       </c>
-      <c r="U34" s="56" t="s">
+      <c r="U34" t="s">
         <v>20</v>
       </c>
-      <c r="V34" s="56">
+      <c r="V34">
         <v>0.01</v>
       </c>
-      <c r="W34" s="56" t="s">
+      <c r="W34" t="s">
         <v>19</v>
       </c>
-      <c r="X34" s="56">
+      <c r="X34">
         <v>0.05</v>
       </c>
-      <c r="Y34" s="56" t="s">
+      <c r="Y34" t="s">
         <v>18</v>
       </c>
-      <c r="Z34" s="56">
+      <c r="Z34">
         <v>0.1</v>
       </c>
-      <c r="AA34" s="56" t="s">
+      <c r="AA34" t="s">
         <v>17</v>
       </c>
-      <c r="AB34" s="56" t="s">
+      <c r="AB34" t="s">
         <v>16</v>
       </c>
-      <c r="AC34" s="56">
+      <c r="AC34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="56" t="s">
+      <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35">
         <v>-0.26300000000000001</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35">
         <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A36" s="56" t="s">
+      <c r="A36" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="56">
+      <c r="B36">
         <v>-0.22700000000000001</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36">
         <v>0.50600000000000001</v>
       </c>
-      <c r="D36" s="56">
+      <c r="D36">
         <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A37" s="56" t="s">
+      <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="56">
+      <c r="B37">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37">
         <v>0.503</v>
       </c>
-      <c r="D37" s="56">
+      <c r="D37">
         <v>0.52900000000000003</v>
       </c>
-      <c r="E37" s="56">
+      <c r="E37">
         <v>0.51500000000000001</v>
       </c>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A38" s="56" t="s">
+      <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="56">
+      <c r="B38">
         <v>-0.78400000000000003</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38">
         <v>0.01</v>
       </c>
-      <c r="D38" s="56">
+      <c r="D38">
         <v>2.4E-2</v>
       </c>
-      <c r="E38" s="56">
+      <c r="E38">
         <v>1.6E-2</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A39" s="56" t="s">
+      <c r="A39" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="56">
+      <c r="B39">
         <v>-0.55100000000000005</v>
       </c>
-      <c r="C39" s="56">
+      <c r="C39">
         <v>0.09</v>
       </c>
-      <c r="D39" s="56">
+      <c r="D39">
         <v>0.21199999999999999</v>
       </c>
-      <c r="E39" s="56">
+      <c r="E39">
         <v>0.14299999999999999</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39">
         <v>0.28299999999999997</v>
       </c>
-      <c r="G39" s="56">
+      <c r="G39">
         <v>0.115</v>
       </c>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="24"/>
+      <c r="AB39" s="24"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+      <c r="A40" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="56">
+      <c r="B40">
         <v>0.10100000000000001</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40">
         <v>-0.70299999999999996</v>
       </c>
-      <c r="D40" s="56">
+      <c r="D40">
         <v>-0.68899999999999995</v>
       </c>
-      <c r="E40" s="56">
+      <c r="E40">
         <v>-0.34899999999999998</v>
       </c>
-      <c r="F40" s="56">
+      <c r="F40">
         <v>-0.33700000000000002</v>
       </c>
-      <c r="G40" s="56">
+      <c r="G40">
         <v>1E-3</v>
       </c>
-      <c r="H40" s="56">
+      <c r="H40">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A41" s="56" t="s">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="56">
+      <c r="B41">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41">
         <v>-0.65600000000000003</v>
       </c>
-      <c r="D41" s="56">
+      <c r="D41">
         <v>-0.27800000000000002</v>
       </c>
-      <c r="E41" s="56">
+      <c r="E41">
         <v>-0.63800000000000001</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41">
         <v>-0.253</v>
       </c>
-      <c r="G41" s="56">
+      <c r="G41">
         <v>0.03</v>
       </c>
-      <c r="H41" s="56">
+      <c r="H41">
         <v>0.26200000000000001</v>
       </c>
-      <c r="I41" s="56">
+      <c r="I41">
         <v>0.48499999999999999</v>
       </c>
       <c r="Q41" s="24"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="59"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A42" s="56" t="s">
+      <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="56">
+      <c r="B42">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42">
         <v>-0.69699999999999995</v>
       </c>
-      <c r="D42" s="56">
+      <c r="D42">
         <v>-0.33100000000000002</v>
       </c>
-      <c r="E42" s="56">
+      <c r="E42">
         <v>-0.34</v>
       </c>
-      <c r="F42" s="56">
+      <c r="F42">
         <v>-0.65800000000000003</v>
       </c>
-      <c r="G42" s="56">
+      <c r="G42">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H42" s="56">
+      <c r="H42">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="I42" s="56">
+      <c r="I42">
         <v>0.499</v>
       </c>
-      <c r="J42" s="56">
+      <c r="J42">
         <v>0.499</v>
       </c>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="59"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="59"/>
-      <c r="Y43" s="59"/>
-      <c r="Z43" s="59"/>
-      <c r="AA43" s="59"/>
-      <c r="AB43" s="59"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="24"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="59"/>
-      <c r="Y44" s="59"/>
-      <c r="Z44" s="59"/>
-      <c r="AA44" s="59"/>
-      <c r="AB44" s="59"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="24"/>
+      <c r="AB44" s="24"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="61"/>
-      <c r="T45" s="61"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="59"/>
-      <c r="AA45" s="59"/>
-      <c r="AB45" s="59"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="24"/>
+      <c r="AA45" s="24"/>
+      <c r="AB45" s="24"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="62"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="59"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="59"/>
-      <c r="AA46" s="59"/>
-      <c r="AB46" s="59"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="51"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="24"/>
+      <c r="AB46" s="24"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="62"/>
-      <c r="T47" s="62"/>
-      <c r="U47" s="59"/>
-      <c r="V47" s="59"/>
-      <c r="W47" s="59"/>
-      <c r="X47" s="59"/>
-      <c r="Y47" s="59"/>
-      <c r="Z47" s="59"/>
-      <c r="AA47" s="59"/>
-      <c r="AB47" s="59"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="24"/>
+      <c r="AB47" s="24"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="62"/>
-      <c r="T48" s="62"/>
-      <c r="U48" s="59"/>
-      <c r="V48" s="59"/>
-      <c r="W48" s="59"/>
-      <c r="X48" s="59"/>
-      <c r="Y48" s="59"/>
-      <c r="Z48" s="59"/>
-      <c r="AA48" s="59"/>
-      <c r="AB48" s="59"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="24"/>
+      <c r="AB48" s="24"/>
     </row>
     <row r="49" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="62"/>
-      <c r="U49" s="59"/>
-      <c r="V49" s="59"/>
-      <c r="W49" s="59"/>
-      <c r="X49" s="59"/>
-      <c r="Y49" s="59"/>
-      <c r="Z49" s="59"/>
-      <c r="AA49" s="59"/>
-      <c r="AB49" s="59"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24"/>
+      <c r="AB49" s="24"/>
     </row>
     <row r="50" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="62"/>
-      <c r="T50" s="62"/>
-      <c r="U50" s="59"/>
-      <c r="V50" s="59"/>
-      <c r="W50" s="59"/>
-      <c r="X50" s="59"/>
-      <c r="Y50" s="59"/>
-      <c r="Z50" s="59"/>
-      <c r="AA50" s="59"/>
-      <c r="AB50" s="59"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="51"/>
+      <c r="T50" s="51"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="24"/>
+      <c r="AB50" s="24"/>
     </row>
     <row r="51" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="59"/>
-      <c r="V51" s="59"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="59"/>
-      <c r="Y51" s="59"/>
-      <c r="Z51" s="59"/>
-      <c r="AA51" s="59"/>
-      <c r="AB51" s="59"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="24"/>
+      <c r="AA51" s="24"/>
+      <c r="AB51" s="24"/>
     </row>
     <row r="52" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="62"/>
-      <c r="U52" s="59"/>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="59"/>
-      <c r="Y52" s="59"/>
-      <c r="Z52" s="59"/>
-      <c r="AA52" s="59"/>
-      <c r="AB52" s="59"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="24"/>
+      <c r="AA52" s="24"/>
+      <c r="AB52" s="24"/>
     </row>
     <row r="53" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="61"/>
-      <c r="T53" s="61"/>
-      <c r="U53" s="59"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="59"/>
-      <c r="Y53" s="59"/>
-      <c r="Z53" s="59"/>
-      <c r="AA53" s="59"/>
-      <c r="AB53" s="59"/>
-      <c r="AI53" s="56" t="s">
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="24"/>
+      <c r="AB53" s="24"/>
+      <c r="AI53" t="s">
         <v>33</v>
       </c>
-      <c r="AJ53" s="56" t="s">
+      <c r="AJ53" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
-      <c r="U54" s="59"/>
-      <c r="V54" s="59"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="59"/>
-      <c r="Y54" s="59"/>
-      <c r="Z54" s="59"/>
-      <c r="AA54" s="59"/>
-      <c r="AB54" s="59"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="24"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="24"/>
+      <c r="AA54" s="24"/>
+      <c r="AB54" s="24"/>
     </row>
     <row r="55" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
-      <c r="U55" s="59"/>
-      <c r="V55" s="59"/>
-      <c r="W55" s="59"/>
-      <c r="X55" s="59"/>
-      <c r="Y55" s="59"/>
-      <c r="Z55" s="59"/>
-      <c r="AA55" s="59"/>
-      <c r="AB55" s="59"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="24"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="24"/>
+      <c r="AA55" s="24"/>
+      <c r="AB55" s="24"/>
     </row>
     <row r="56" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="62"/>
-      <c r="U56" s="59"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="59"/>
-      <c r="Y56" s="59"/>
-      <c r="Z56" s="59"/>
-      <c r="AA56" s="59"/>
-      <c r="AB56" s="59"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="51"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="24"/>
+      <c r="AA56" s="24"/>
+      <c r="AB56" s="24"/>
     </row>
     <row r="57" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="62"/>
-      <c r="T57" s="62"/>
-      <c r="U57" s="59"/>
-      <c r="V57" s="59"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="59"/>
-      <c r="Y57" s="59"/>
-      <c r="Z57" s="59"/>
-      <c r="AA57" s="59"/>
-      <c r="AB57" s="59"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+      <c r="X57" s="24"/>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="24"/>
+      <c r="AA57" s="24"/>
+      <c r="AB57" s="24"/>
     </row>
     <row r="58" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="62"/>
-      <c r="T58" s="62"/>
-      <c r="U58" s="59"/>
-      <c r="V58" s="59"/>
-      <c r="W58" s="59"/>
-      <c r="X58" s="59"/>
-      <c r="Y58" s="59"/>
-      <c r="Z58" s="59"/>
-      <c r="AA58" s="59"/>
-      <c r="AB58" s="59"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="24"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="24"/>
+      <c r="AA58" s="24"/>
+      <c r="AB58" s="24"/>
     </row>
     <row r="59" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="62"/>
-      <c r="T59" s="62"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="59"/>
-      <c r="W59" s="59"/>
-      <c r="X59" s="59"/>
-      <c r="Y59" s="59"/>
-      <c r="Z59" s="59"/>
-      <c r="AA59" s="59"/>
-      <c r="AB59" s="59"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24"/>
+      <c r="W59" s="24"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="24"/>
+      <c r="AA59" s="24"/>
+      <c r="AB59" s="24"/>
     </row>
     <row r="60" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q60" s="59"/>
-      <c r="R60" s="59"/>
-      <c r="S60" s="62"/>
-      <c r="T60" s="62"/>
-      <c r="U60" s="59"/>
-      <c r="V60" s="59"/>
-      <c r="W60" s="59"/>
-      <c r="X60" s="59"/>
-      <c r="Y60" s="59"/>
-      <c r="Z60" s="59"/>
-      <c r="AA60" s="59"/>
-      <c r="AB60" s="59"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="51"/>
+      <c r="U60" s="24"/>
+      <c r="V60" s="24"/>
+      <c r="W60" s="24"/>
+      <c r="X60" s="24"/>
+      <c r="Y60" s="24"/>
+      <c r="Z60" s="24"/>
+      <c r="AA60" s="24"/>
+      <c r="AB60" s="24"/>
     </row>
     <row r="61" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
-      <c r="S61" s="61"/>
-      <c r="T61" s="61"/>
-      <c r="U61" s="59"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="59"/>
-      <c r="X61" s="59"/>
-      <c r="Y61" s="59"/>
-      <c r="Z61" s="59"/>
-      <c r="AA61" s="59"/>
-      <c r="AB61" s="59"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="24"/>
+      <c r="V61" s="24"/>
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="24"/>
+      <c r="AA61" s="24"/>
+      <c r="AB61" s="24"/>
     </row>
     <row r="62" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q62" s="59"/>
-      <c r="R62" s="59"/>
-      <c r="S62" s="59"/>
-      <c r="T62" s="59"/>
-      <c r="U62" s="59"/>
-      <c r="V62" s="59"/>
-      <c r="W62" s="59"/>
-      <c r="X62" s="59"/>
-      <c r="Y62" s="59"/>
-      <c r="Z62" s="59"/>
-      <c r="AA62" s="59"/>
-      <c r="AB62" s="59"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="24"/>
+      <c r="X62" s="24"/>
+      <c r="Y62" s="24"/>
+      <c r="Z62" s="24"/>
+      <c r="AA62" s="24"/>
+      <c r="AB62" s="24"/>
     </row>
     <row r="63" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
-      <c r="S63" s="59"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="59"/>
-      <c r="V63" s="59"/>
-      <c r="W63" s="59"/>
-      <c r="X63" s="59"/>
-      <c r="Y63" s="59"/>
-      <c r="Z63" s="59"/>
-      <c r="AA63" s="59"/>
-      <c r="AB63" s="59"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="24"/>
+      <c r="X63" s="24"/>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="24"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
     </row>
     <row r="64" spans="17:36" x14ac:dyDescent="0.3">
-      <c r="Q64" s="59"/>
-      <c r="R64" s="59"/>
-      <c r="S64" s="59"/>
-      <c r="T64" s="59"/>
-      <c r="U64" s="59"/>
-      <c r="V64" s="59"/>
-      <c r="W64" s="59"/>
-      <c r="X64" s="59"/>
-      <c r="Y64" s="59"/>
-      <c r="Z64" s="59"/>
-      <c r="AA64" s="59"/>
-      <c r="AB64" s="59"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="24"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="24"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="24"/>
     </row>
     <row r="65" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="59"/>
-      <c r="T65" s="59"/>
-      <c r="U65" s="59"/>
-      <c r="V65" s="59"/>
-      <c r="W65" s="59"/>
-      <c r="X65" s="59"/>
-      <c r="Y65" s="59"/>
-      <c r="Z65" s="59"/>
-      <c r="AA65" s="59"/>
-      <c r="AB65" s="59"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="24"/>
+      <c r="AB65" s="24"/>
     </row>
     <row r="66" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="60"/>
-      <c r="V66" s="60"/>
-      <c r="W66" s="60"/>
-      <c r="X66" s="60"/>
-      <c r="Y66" s="60"/>
-      <c r="Z66" s="60"/>
-      <c r="AA66" s="59"/>
-      <c r="AB66" s="59"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="57"/>
+      <c r="V66" s="57"/>
+      <c r="W66" s="57"/>
+      <c r="X66" s="57"/>
+      <c r="Y66" s="57"/>
+      <c r="Z66" s="57"/>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
     </row>
     <row r="67" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
-      <c r="S67" s="59"/>
-      <c r="T67" s="59"/>
-      <c r="U67" s="59"/>
-      <c r="V67" s="59"/>
-      <c r="W67" s="59"/>
-      <c r="X67" s="59"/>
-      <c r="Y67" s="59"/>
-      <c r="Z67" s="59"/>
-      <c r="AA67" s="59"/>
-      <c r="AB67" s="59"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="24"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="24"/>
+      <c r="AA67" s="24"/>
+      <c r="AB67" s="24"/>
     </row>
     <row r="68" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q68" s="59"/>
-      <c r="R68" s="59"/>
-      <c r="S68" s="59"/>
-      <c r="T68" s="59"/>
-      <c r="U68" s="59"/>
-      <c r="V68" s="59"/>
-      <c r="W68" s="59"/>
-      <c r="X68" s="59"/>
-      <c r="Y68" s="59"/>
-      <c r="Z68" s="59"/>
-      <c r="AA68" s="59"/>
-      <c r="AB68" s="59"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="24"/>
     </row>
     <row r="69" spans="17:28" x14ac:dyDescent="0.3">
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
-      <c r="S69" s="59"/>
-      <c r="T69" s="59"/>
-      <c r="U69" s="59"/>
-      <c r="V69" s="59"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="59"/>
-      <c r="Y69" s="59"/>
-      <c r="Z69" s="59"/>
-      <c r="AA69" s="59"/>
-      <c r="AB69" s="59"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Data/Processed/Daytime/Models.xlsx
+++ b/Data/Processed/Daytime/Models.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yliua\Desktop\MP.June\Data\Processed\Daytime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC77116-85DF-4E52-B6FD-7BC46AF00D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13251DC6-7EFC-416F-ADF3-CEBD50058FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2895" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="14" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId4"/>
-    <sheet name="Sapflux t" sheetId="13" r:id="rId5"/>
-    <sheet name="Q2" sheetId="3" r:id="rId6"/>
-    <sheet name="Q3" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="14" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId5"/>
+    <sheet name="Sapflux t" sheetId="13" r:id="rId6"/>
+    <sheet name="Q2" sheetId="3" r:id="rId7"/>
+    <sheet name="Q3" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="345">
   <si>
     <t>DenstyL:GnO</t>
   </si>
@@ -1115,6 +1116,189 @@
   </si>
   <si>
     <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>Group 2</t>
+  </si>
+  <si>
+    <t>Df Sum Sq Mean Sq</t>
+  </si>
+  <si>
+    <t>F value</t>
+  </si>
+  <si>
+    <t>Density         1</t>
+  </si>
+  <si>
+    <t>Geno            3</t>
+  </si>
+  <si>
+    <t>Density:Geno    3</t>
+  </si>
+  <si>
+    <t>Residuals    3896</t>
+  </si>
+  <si>
+    <t>Tukey multiple comparisons of means</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    95% family-wise confidence level</t>
+  </si>
+  <si>
+    <t>$Density</t>
+  </si>
+  <si>
+    <t>$Geno</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>lwr</t>
+  </si>
+  <si>
+    <t>upr</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <t>L-H</t>
+  </si>
+  <si>
+    <t>B-A</t>
+  </si>
+  <si>
+    <t>C-A</t>
+  </si>
+  <si>
+    <t>O-A</t>
+  </si>
+  <si>
+    <t>C-B</t>
+  </si>
+  <si>
+    <t>O-B</t>
+  </si>
+  <si>
+    <t>O-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 2 </t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>&lt;0.05</t>
+  </si>
+  <si>
+    <t>Fit  aov(formula = SapflowPerGroundArea ~ Density * Geno + (1 | DOY) + (1 | Block), data = Sapflow)</t>
+  </si>
+  <si>
+    <t>$`Density Geno`</t>
+  </si>
+  <si>
+    <t>L A-H A</t>
+  </si>
+  <si>
+    <t>H B-H A</t>
+  </si>
+  <si>
+    <t>L B-H A</t>
+  </si>
+  <si>
+    <t>H C-H A</t>
+  </si>
+  <si>
+    <t>L C-H A</t>
+  </si>
+  <si>
+    <t>H O-H A</t>
+  </si>
+  <si>
+    <t>L O-H A</t>
+  </si>
+  <si>
+    <t>H B-L A</t>
+  </si>
+  <si>
+    <t>L B-L A</t>
+  </si>
+  <si>
+    <t>H C-L A</t>
+  </si>
+  <si>
+    <t>L C-L A</t>
+  </si>
+  <si>
+    <t>H O-L A</t>
+  </si>
+  <si>
+    <t>L O-L A</t>
+  </si>
+  <si>
+    <t>L B-H B</t>
+  </si>
+  <si>
+    <t>H C-H B</t>
+  </si>
+  <si>
+    <t>L C-H B</t>
+  </si>
+  <si>
+    <t>H O-H B</t>
+  </si>
+  <si>
+    <t>L O-H B</t>
+  </si>
+  <si>
+    <t>H C-L B</t>
+  </si>
+  <si>
+    <t>L C-L B</t>
+  </si>
+  <si>
+    <t>H O-L B</t>
+  </si>
+  <si>
+    <t>L O-L B</t>
+  </si>
+  <si>
+    <t>L C-H C</t>
+  </si>
+  <si>
+    <t>H O-H C</t>
+  </si>
+  <si>
+    <t>L O-H C</t>
+  </si>
+  <si>
+    <t>H O-L C</t>
+  </si>
+  <si>
+    <t>L O-L C</t>
+  </si>
+  <si>
+    <t>L O-H O</t>
+  </si>
+  <si>
+    <t>sapflux</t>
+  </si>
+  <si>
+    <t>Genotype 1</t>
+  </si>
+  <si>
+    <t>Genotype 2</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1365,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1197,12 +1381,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,7 +1852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1927,12 +2105,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2025,6 +2197,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2037,17 +2240,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2061,20 +2261,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2097,17 +2288,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3300,16 +3492,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>340995</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>291465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>94737</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>22630</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>336672</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104545</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3338,8 +3530,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9096375" y="1295400"/>
-          <a:ext cx="6706992" cy="4137430"/>
+          <a:off x="10551795" y="472440"/>
+          <a:ext cx="6701277" cy="4127905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3355,16 +3547,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1278255</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>87631</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>262891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>11431</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3913,8 +4105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30BD2C4-1BF8-489F-8700-1BE1FEF7BF83}">
   <dimension ref="A2:U56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:H28"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4643,7 +4835,76 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" t="s">
+        <v>288</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>289</v>
+      </c>
+      <c r="B44">
+        <v>424.1</v>
+      </c>
+      <c r="C44">
+        <v>424.1</v>
+      </c>
+      <c r="D44">
+        <v>991.71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45">
+        <v>74.5</v>
+      </c>
+      <c r="C45">
+        <v>24.8</v>
+      </c>
+      <c r="D45">
+        <v>58.11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>291</v>
+      </c>
+      <c r="B46">
+        <v>127.7</v>
+      </c>
+      <c r="C46">
+        <v>42.6</v>
+      </c>
+      <c r="D46">
+        <v>99.57</v>
+      </c>
+      <c r="E46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
       <c r="P46" s="19" t="s">
         <v>73</v>
       </c>
@@ -4664,6 +4925,15 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47">
+        <v>1666</v>
+      </c>
+      <c r="C47">
+        <v>0.4</v>
+      </c>
       <c r="P47" s="19" t="s">
         <v>128</v>
       </c>
@@ -4854,19 +5124,1043 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82C7035-2358-4F21-9037-2A4C488E9CA5}">
-  <dimension ref="A1:AM110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740ACAB7-7AC6-4FB4-BFD6-55DDD3F553E9}">
+  <dimension ref="B1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N1" s="123" t="s">
+        <v>285</v>
+      </c>
+      <c r="O1" s="123" t="s">
+        <v>309</v>
+      </c>
+      <c r="P1" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q1" s="123" t="s">
+        <v>255</v>
+      </c>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+    </row>
+    <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="127">
+        <v>-0.30159420999999997</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="T2" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="123" t="s">
+        <v>343</v>
+      </c>
+      <c r="V2" s="123" t="s">
+        <v>344</v>
+      </c>
+      <c r="W2" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="X2" s="50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="N3" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="127">
+        <v>-2.67516E-2</v>
+      </c>
+      <c r="Q3" s="127">
+        <v>0.8</v>
+      </c>
+      <c r="T3" s="158" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" s="158" t="s">
+        <v>131</v>
+      </c>
+      <c r="V3" s="158" t="s">
+        <v>130</v>
+      </c>
+      <c r="W3" s="159">
+        <v>0.23772747299999999</v>
+      </c>
+      <c r="X3" s="158" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="127">
+        <v>5.6452549999999997E-2</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="T4" s="158" t="s">
+        <v>128</v>
+      </c>
+      <c r="U4" s="158" t="s">
+        <v>132</v>
+      </c>
+      <c r="V4" s="158" t="s">
+        <v>130</v>
+      </c>
+      <c r="W4" s="159">
+        <v>-0.62508343200000005</v>
+      </c>
+      <c r="X4" s="158" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="N5" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" s="127">
+        <v>-0.35804677000000001</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="T5" s="158" t="s">
+        <v>128</v>
+      </c>
+      <c r="U5" s="158" t="s">
+        <v>133</v>
+      </c>
+      <c r="V5" s="158" t="s">
+        <v>130</v>
+      </c>
+      <c r="W5" s="159">
+        <v>-6.2408061000000001E-2</v>
+      </c>
+      <c r="X5" s="158">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="127">
+        <v>-8.3204150000000004E-2</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="T6" s="158" t="s">
+        <v>128</v>
+      </c>
+      <c r="U6" s="158" t="s">
+        <v>132</v>
+      </c>
+      <c r="V6" s="158" t="s">
+        <v>131</v>
+      </c>
+      <c r="W6" s="159">
+        <v>-0.86281090500000002</v>
+      </c>
+      <c r="X6" s="158" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" t="s">
+        <v>301</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="127">
+        <v>0.27484260999999999</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="T7" s="158" t="s">
+        <v>128</v>
+      </c>
+      <c r="U7" s="158" t="s">
+        <v>133</v>
+      </c>
+      <c r="V7" s="158" t="s">
+        <v>131</v>
+      </c>
+      <c r="W7" s="159">
+        <v>-0.30013553399999998</v>
+      </c>
+      <c r="X7" s="158" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8">
+        <v>-0.65915849999999998</v>
+      </c>
+      <c r="D8">
+        <v>-0.70019609999999999</v>
+      </c>
+      <c r="E8">
+        <v>-0.61812100000000003</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="158" t="s">
+        <v>128</v>
+      </c>
+      <c r="U8" s="158" t="s">
+        <v>133</v>
+      </c>
+      <c r="V8" s="158" t="s">
+        <v>132</v>
+      </c>
+      <c r="W8" s="159">
+        <v>0.56267537000000001</v>
+      </c>
+      <c r="X8" s="158" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="T9" s="158" t="s">
+        <v>129</v>
+      </c>
+      <c r="U9" s="158" t="s">
+        <v>131</v>
+      </c>
+      <c r="V9" s="158" t="s">
+        <v>130</v>
+      </c>
+      <c r="W9" s="159">
+        <v>-0.124822371</v>
+      </c>
+      <c r="X9" s="158">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>296</v>
+      </c>
+      <c r="T10" s="158" t="s">
+        <v>129</v>
+      </c>
+      <c r="U10" s="158" t="s">
+        <v>132</v>
+      </c>
+      <c r="V10" s="158" t="s">
+        <v>130</v>
+      </c>
+      <c r="W10" s="159">
+        <v>2.1895002E-2</v>
+      </c>
+      <c r="X10" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" t="s">
+        <v>301</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="T11" s="158" t="s">
+        <v>129</v>
+      </c>
+      <c r="U11" s="158" t="s">
+        <v>133</v>
+      </c>
+      <c r="V11" s="158" t="s">
+        <v>130</v>
+      </c>
+      <c r="W11" s="159">
+        <v>8.9048570000000004E-3</v>
+      </c>
+      <c r="X11" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12">
+        <v>5.6452549999999997E-2</v>
+      </c>
+      <c r="D12">
+        <v>-1.9627439999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.13253254</v>
+      </c>
+      <c r="F12">
+        <v>0.22514020000000001</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="T12" s="158" t="s">
+        <v>129</v>
+      </c>
+      <c r="U12" s="158" t="s">
+        <v>132</v>
+      </c>
+      <c r="V12" s="158" t="s">
+        <v>131</v>
+      </c>
+      <c r="W12" s="159">
+        <v>0.14671737300000001</v>
+      </c>
+      <c r="X12" s="158" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13">
+        <v>-0.30159420999999997</v>
+      </c>
+      <c r="D13">
+        <v>-0.37767420000000002</v>
+      </c>
+      <c r="E13">
+        <v>-0.22551422600000001</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="T13" s="158" t="s">
+        <v>129</v>
+      </c>
+      <c r="U13" s="158" t="s">
+        <v>133</v>
+      </c>
+      <c r="V13" s="158" t="s">
+        <v>131</v>
+      </c>
+      <c r="W13" s="159">
+        <v>0.133727228</v>
+      </c>
+      <c r="X13" s="158" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14">
+        <v>-2.67516E-2</v>
+      </c>
+      <c r="D14">
+        <v>-0.10283159</v>
+      </c>
+      <c r="E14">
+        <v>4.9328387000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.80285899999999999</v>
+      </c>
+      <c r="N14" t="s">
+        <v>110</v>
+      </c>
+      <c r="T14" s="158" t="s">
+        <v>129</v>
+      </c>
+      <c r="U14" s="158" t="s">
+        <v>133</v>
+      </c>
+      <c r="V14" s="158" t="s">
+        <v>132</v>
+      </c>
+      <c r="W14" s="159">
+        <v>-1.2990145E-2</v>
+      </c>
+      <c r="X14" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15">
+        <v>-0.35804677000000001</v>
+      </c>
+      <c r="D15">
+        <v>-0.43412675000000001</v>
+      </c>
+      <c r="E15">
+        <v>-0.28196677599999997</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16">
+        <v>-8.3204150000000004E-2</v>
+      </c>
+      <c r="D16">
+        <v>-0.15928413999999999</v>
+      </c>
+      <c r="E16">
+        <v>-7.1241639999999997E-3</v>
+      </c>
+      <c r="F16">
+        <v>2.55763E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17">
+        <v>0.27484260999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.19876262</v>
+      </c>
+      <c r="E17">
+        <v>0.35092260199999997</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="V18" t="s">
+        <v>122</v>
+      </c>
+      <c r="W18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>313</v>
+      </c>
+      <c r="V19" t="s">
+        <v>120</v>
+      </c>
+      <c r="W19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" t="s">
+        <v>299</v>
+      </c>
+      <c r="F20" t="s">
+        <v>300</v>
+      </c>
+      <c r="G20" t="s">
+        <v>301</v>
+      </c>
+      <c r="V20" t="s">
+        <v>126</v>
+      </c>
+      <c r="W20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="V21" t="s">
+        <v>124</v>
+      </c>
+      <c r="W21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22">
+        <v>0.23772747299999999</v>
+      </c>
+      <c r="D22">
+        <v>0.110776995</v>
+      </c>
+      <c r="E22">
+        <v>0.364677951</v>
+      </c>
+      <c r="F22">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23">
+        <v>-0.87291629699999995</v>
+      </c>
+      <c r="D23">
+        <v>-0.99986677499999999</v>
+      </c>
+      <c r="E23">
+        <v>-0.74596582</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24">
+        <v>-0.62508343200000005</v>
+      </c>
+      <c r="D24">
+        <v>-0.752033909</v>
+      </c>
+      <c r="E24">
+        <v>-0.49813295400000002</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25">
+        <v>-0.72619892399999997</v>
+      </c>
+      <c r="D25">
+        <v>-0.85314940100000003</v>
+      </c>
+      <c r="E25">
+        <v>-0.59924844600000005</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>319</v>
+      </c>
+      <c r="C26">
+        <v>-6.2408061000000001E-2</v>
+      </c>
+      <c r="D26">
+        <v>-0.18935853899999999</v>
+      </c>
+      <c r="E26">
+        <v>6.4542416000000005E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.81267480000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C27">
+        <v>-0.73918906900000003</v>
+      </c>
+      <c r="D27">
+        <v>-0.86613954699999995</v>
+      </c>
+      <c r="E27">
+        <v>-0.612238591</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28">
+        <v>0.98582139899999999</v>
+      </c>
+      <c r="D28">
+        <v>0.85887092099999995</v>
+      </c>
+      <c r="E28">
+        <v>1.1127718769999999</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29">
+        <v>-0.124822371</v>
+      </c>
+      <c r="D29">
+        <v>-0.25177284900000002</v>
+      </c>
+      <c r="E29">
+        <v>2.1281059999999998E-3</v>
+      </c>
+      <c r="F29">
+        <v>5.7916500000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30">
+        <v>0.123010494</v>
+      </c>
+      <c r="D30">
+        <v>-3.9399830000000002E-3</v>
+      </c>
+      <c r="E30">
+        <v>0.249960972</v>
+      </c>
+      <c r="F30">
+        <v>6.5459799999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31">
+        <v>2.1895002E-2</v>
+      </c>
+      <c r="D31">
+        <v>-0.105055475</v>
+      </c>
+      <c r="E31">
+        <v>0.14884548</v>
+      </c>
+      <c r="F31">
+        <v>0.99954699999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C32">
+        <v>0.68568586499999995</v>
+      </c>
+      <c r="D32">
+        <v>0.55873538700000003</v>
+      </c>
+      <c r="E32">
+        <v>0.81263634200000001</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>326</v>
+      </c>
+      <c r="C33">
+        <v>8.9048570000000004E-3</v>
+      </c>
+      <c r="D33">
+        <v>-0.118045621</v>
+      </c>
+      <c r="E33">
+        <v>0.13585533499999999</v>
+      </c>
+      <c r="F33">
+        <v>0.99999899999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35">
+        <v>-0.86281090500000002</v>
+      </c>
+      <c r="D35">
+        <v>-0.98976138199999997</v>
+      </c>
+      <c r="E35">
+        <v>-0.73586042699999998</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36">
+        <v>-0.96392639700000005</v>
+      </c>
+      <c r="D36">
+        <v>-1.0908768740000001</v>
+      </c>
+      <c r="E36">
+        <v>-0.83697591900000001</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>330</v>
+      </c>
+      <c r="C37">
+        <v>-0.30013553399999998</v>
+      </c>
+      <c r="D37">
+        <v>-0.42708601200000001</v>
+      </c>
+      <c r="E37">
+        <v>-0.173185057</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>331</v>
+      </c>
+      <c r="C38">
+        <v>-0.976916542</v>
+      </c>
+      <c r="D38">
+        <v>-1.10386702</v>
+      </c>
+      <c r="E38">
+        <v>-0.84996606399999997</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>332</v>
+      </c>
+      <c r="C39">
+        <v>0.24783286500000001</v>
+      </c>
+      <c r="D39">
+        <v>0.12088238799999999</v>
+      </c>
+      <c r="E39">
+        <v>0.37478334299999999</v>
+      </c>
+      <c r="F39">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>333</v>
+      </c>
+      <c r="C40">
+        <v>0.14671737300000001</v>
+      </c>
+      <c r="D40">
+        <v>1.9766895999999999E-2</v>
+      </c>
+      <c r="E40">
+        <v>0.27366785100000002</v>
+      </c>
+      <c r="F40">
+        <v>1.09053E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>334</v>
+      </c>
+      <c r="C41">
+        <v>0.81050823599999999</v>
+      </c>
+      <c r="D41">
+        <v>0.68355775799999996</v>
+      </c>
+      <c r="E41">
+        <v>0.93745871300000005</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>314</v>
+      </c>
+      <c r="I41">
+        <v>-0.74809392600000002</v>
+      </c>
+      <c r="J41">
+        <v>-0.87504440400000005</v>
+      </c>
+      <c r="K41">
+        <v>-0.62114344799999999</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>335</v>
+      </c>
+      <c r="C42">
+        <v>0.133727228</v>
+      </c>
+      <c r="D42">
+        <v>6.7767499999999998E-3</v>
+      </c>
+      <c r="E42">
+        <v>0.26067770600000001</v>
+      </c>
+      <c r="F42">
+        <v>3.0616399999999998E-2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>327</v>
+      </c>
+      <c r="I42">
+        <v>-1.11064377</v>
+      </c>
+      <c r="J42">
+        <v>-1.237594248</v>
+      </c>
+      <c r="K42">
+        <v>-0.983693292</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>336</v>
+      </c>
+      <c r="I43">
+        <v>-0.101115492</v>
+      </c>
+      <c r="J43">
+        <v>-0.22806597000000001</v>
+      </c>
+      <c r="K43">
+        <v>2.5834986000000001E-2</v>
+      </c>
+      <c r="L43">
+        <v>0.23396220000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>337</v>
+      </c>
+      <c r="C44">
+        <v>0.56267537000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.435724893</v>
+      </c>
+      <c r="E44">
+        <v>0.68962584800000004</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>341</v>
+      </c>
+      <c r="I44">
+        <v>-0.67678100799999996</v>
+      </c>
+      <c r="J44">
+        <v>-0.80373148500000002</v>
+      </c>
+      <c r="K44">
+        <v>-0.54983053000000004</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C45">
+        <v>-0.114105637</v>
+      </c>
+      <c r="D45">
+        <v>-0.24105611499999999</v>
+      </c>
+      <c r="E45">
+        <v>1.284484E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.1151441</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>339</v>
+      </c>
+      <c r="C46">
+        <v>0.66379086200000004</v>
+      </c>
+      <c r="D46">
+        <v>0.53684038499999998</v>
+      </c>
+      <c r="E46">
+        <v>0.79074133999999996</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>340</v>
+      </c>
+      <c r="C47">
+        <v>-1.2990145E-2</v>
+      </c>
+      <c r="D47">
+        <v>-0.13994062299999999</v>
+      </c>
+      <c r="E47">
+        <v>0.113960332</v>
+      </c>
+      <c r="F47">
+        <v>0.99998670000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:Q52">
+    <sortCondition ref="O1:O52"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82C7035-2358-4F21-9037-2A4C488E9CA5}">
+  <dimension ref="A1:AM110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12:AD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.21875" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
@@ -5078,32 +6372,32 @@
       <c r="M4">
         <v>404.43</v>
       </c>
-      <c r="O4" s="139" t="s">
+      <c r="O4" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="132" t="s">
+      <c r="P4" s="133"/>
+      <c r="Q4" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="141"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="132" t="s">
+      <c r="R4" s="134"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="141"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="138" t="s">
+      <c r="U4" s="134"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="132" t="s">
+      <c r="X4" s="129"/>
+      <c r="Y4" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="132" t="s">
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="AB4" s="133"/>
+      <c r="AB4" s="131"/>
       <c r="AD4" t="s">
         <v>155</v>
       </c>
@@ -5676,19 +6970,19 @@
       <c r="C11" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="126">
         <f>D2/J2</f>
         <v>30.722808259582351</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="126">
         <f t="shared" ref="E11:G18" si="2">E2/K2</f>
         <v>34.286560553284673</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="126">
         <f t="shared" si="2"/>
         <v>3.5637522937023203</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="126">
         <f t="shared" si="2"/>
         <v>2.9452498295060501E-2</v>
       </c>
@@ -5698,32 +6992,32 @@
       <c r="M11">
         <v>3504.3165222515199</v>
       </c>
-      <c r="O11" s="139" t="s">
+      <c r="O11" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="132" t="s">
+      <c r="P11" s="133"/>
+      <c r="Q11" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="141"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="132" t="s">
+      <c r="R11" s="134"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="141"/>
-      <c r="V11" s="133"/>
-      <c r="W11" s="132" t="s">
+      <c r="U11" s="134"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="132" t="s">
+      <c r="X11" s="131"/>
+      <c r="Y11" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="Z11" s="133"/>
-      <c r="AA11" s="138" t="s">
+      <c r="Z11" s="131"/>
+      <c r="AA11" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="AB11" s="138"/>
+      <c r="AB11" s="129"/>
       <c r="AE11" t="s">
         <v>106</v>
       </c>
@@ -5744,19 +7038,19 @@
       <c r="C12" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="126">
         <f t="shared" ref="D12:D18" si="3">D3/J3</f>
         <v>31.67526671789479</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="126">
         <f t="shared" si="2"/>
         <v>35.34615518130596</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="126">
         <f t="shared" si="2"/>
         <v>3.6708884634111727</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="126">
         <f t="shared" si="2"/>
         <v>3.0337921185216301E-2</v>
       </c>
@@ -5831,19 +7125,19 @@
       <c r="C13" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="126">
         <f t="shared" si="3"/>
         <v>31.175168432148407</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="126">
         <f t="shared" si="2"/>
         <v>35.613121984764781</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="126">
         <f t="shared" si="2"/>
         <v>4.4379535526163734</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="126">
         <f t="shared" si="2"/>
         <v>3.6677302087738624E-2</v>
       </c>
@@ -5918,19 +7212,19 @@
       <c r="C14" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="126">
         <f t="shared" si="3"/>
         <v>28.176923275315506</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="126">
         <f t="shared" si="2"/>
         <v>32.569293719442939</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="126">
         <f t="shared" si="2"/>
         <v>4.3923704441274349</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="126">
         <f t="shared" si="2"/>
         <v>3.6300582182871362E-2</v>
       </c>
@@ -6005,19 +7299,19 @@
       <c r="C15" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="126">
         <f t="shared" si="3"/>
         <v>168.58791057509103</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="126">
         <f t="shared" si="2"/>
         <v>194.64133998107238</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="126">
         <f t="shared" si="2"/>
         <v>26.05342940598134</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="126">
         <f t="shared" si="2"/>
         <v>0.21531759839653999</v>
       </c>
@@ -6092,19 +7386,19 @@
       <c r="C16" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="126">
         <f t="shared" si="3"/>
         <v>161.76495059423493</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="126">
         <f t="shared" si="2"/>
         <v>186.72008491154486</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="126">
         <f t="shared" si="2"/>
         <v>24.955134317309909</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="126">
         <f t="shared" si="2"/>
         <v>0.20624077948190006</v>
       </c>
@@ -6167,19 +7461,19 @@
       <c r="C17" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="126">
         <f t="shared" si="3"/>
         <v>195.62040467643558</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="126">
         <f t="shared" si="2"/>
         <v>228.84565410478109</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="126">
         <f t="shared" si="2"/>
         <v>33.225249428345499</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="126">
         <f t="shared" si="2"/>
         <v>0.27458883825078922</v>
       </c>
@@ -6204,19 +7498,19 @@
       <c r="C18" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="126">
         <f t="shared" si="3"/>
         <v>160.61428163951118</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="126">
         <f t="shared" si="2"/>
         <v>191.21889785965905</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="126">
         <f t="shared" si="2"/>
         <v>30.604616220147868</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="126">
         <f t="shared" si="2"/>
         <v>0.25293071256320554</v>
       </c>
@@ -6240,13 +7534,13 @@
       <c r="AG18" s="23"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="97"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
       <c r="H19" t="s">
         <v>139</v>
       </c>
@@ -6265,32 +7559,32 @@
       <c r="M19" t="s">
         <v>141</v>
       </c>
-      <c r="O19" s="139" t="s">
+      <c r="O19" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="132" t="s">
+      <c r="P19" s="133"/>
+      <c r="Q19" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="141"/>
-      <c r="S19" s="133"/>
-      <c r="T19" s="132" t="s">
+      <c r="R19" s="134"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="U19" s="141"/>
-      <c r="V19" s="133"/>
-      <c r="W19" s="138" t="s">
+      <c r="U19" s="134"/>
+      <c r="V19" s="131"/>
+      <c r="W19" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="X19" s="138"/>
-      <c r="Y19" s="132" t="s">
+      <c r="X19" s="129"/>
+      <c r="Y19" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="Z19" s="133"/>
-      <c r="AA19" s="132" t="s">
+      <c r="Z19" s="131"/>
+      <c r="AA19" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="AB19" s="133"/>
+      <c r="AB19" s="131"/>
       <c r="AC19" s="43" t="s">
         <v>138</v>
       </c>
@@ -6685,14 +7979,14 @@
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
       <c r="S26" s="40"/>
-      <c r="U26" s="132" t="s">
+      <c r="U26" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="V26" s="133"/>
-      <c r="W26" s="132" t="s">
+      <c r="V26" s="131"/>
+      <c r="W26" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="X26" s="133"/>
+      <c r="X26" s="131"/>
       <c r="Y26" s="40"/>
       <c r="AA26" s="23"/>
       <c r="AB26" s="23"/>
@@ -6985,12 +8279,12 @@
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="O37" s="142" t="s">
+      <c r="O37" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="P37" s="142"/>
-      <c r="Q37" s="142"/>
-      <c r="R37" s="142"/>
+      <c r="P37" s="139"/>
+      <c r="Q37" s="139"/>
+      <c r="R37" s="139"/>
       <c r="S37" s="49"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
@@ -7017,20 +8311,20 @@
       <c r="R39">
         <v>0.18501068795532874</v>
       </c>
-      <c r="X39" s="134" t="s">
+      <c r="X39" s="142" t="s">
         <v>261</v>
       </c>
-      <c r="Y39" s="135"/>
-      <c r="Z39" s="136" t="s">
+      <c r="Y39" s="143"/>
+      <c r="Z39" s="144" t="s">
         <v>188</v>
       </c>
-      <c r="AA39" s="127"/>
-      <c r="AB39" s="137"/>
-      <c r="AC39" s="136" t="s">
+      <c r="AA39" s="136"/>
+      <c r="AB39" s="145"/>
+      <c r="AC39" s="144" t="s">
         <v>213</v>
       </c>
-      <c r="AD39" s="127"/>
-      <c r="AE39" s="137"/>
+      <c r="AD39" s="136"/>
+      <c r="AE39" s="145"/>
     </row>
     <row r="40" spans="1:31" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O40" t="s">
@@ -7045,28 +8339,28 @@
       <c r="R40">
         <v>3.2500109060768667E-2</v>
       </c>
-      <c r="X40" s="103" t="s">
+      <c r="X40" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="Y40" s="104" t="s">
+      <c r="Y40" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="Z40" s="100" t="s">
+      <c r="Z40" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="AA40" s="105" t="s">
+      <c r="AA40" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="AB40" s="106" t="s">
+      <c r="AB40" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="AC40" s="100" t="s">
+      <c r="AC40" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="AD40" s="107" t="s">
+      <c r="AD40" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="AE40" s="106" t="s">
+      <c r="AE40" s="104" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7083,28 +8377,28 @@
       <c r="R41">
         <v>6.1990140906513114E-2</v>
       </c>
-      <c r="X41" s="98">
+      <c r="X41" s="96">
         <v>1</v>
       </c>
-      <c r="Y41" s="108" t="s">
+      <c r="Y41" s="106" t="s">
         <v>257</v>
       </c>
-      <c r="Z41" s="98" t="s">
+      <c r="Z41" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="AA41" s="109" t="s">
+      <c r="AA41" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="AB41" s="99" t="s">
+      <c r="AB41" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="AC41" s="99" t="s">
+      <c r="AC41" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="AD41" s="105" t="s">
+      <c r="AD41" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="AE41" s="99" t="s">
+      <c r="AE41" s="97" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7118,28 +8412,28 @@
       <c r="R42">
         <v>0.24215853073332463</v>
       </c>
-      <c r="X42" s="98">
+      <c r="X42" s="96">
         <v>2</v>
       </c>
-      <c r="Y42" s="105" t="s">
+      <c r="Y42" s="103" t="s">
         <v>258</v>
       </c>
-      <c r="Z42" s="110" t="s">
+      <c r="Z42" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="AA42" s="111" t="s">
+      <c r="AA42" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AB42" s="112" t="s">
+      <c r="AB42" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="AC42" s="109" t="s">
+      <c r="AC42" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="AD42" s="109" t="s">
+      <c r="AD42" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="AE42" s="109" t="s">
+      <c r="AE42" s="107" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7150,28 +8444,28 @@
       <c r="R43">
         <v>4.0832351786415394E-2</v>
       </c>
-      <c r="X43" s="98">
+      <c r="X43" s="96">
         <v>3</v>
       </c>
-      <c r="Y43" s="105" t="s">
+      <c r="Y43" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="Z43" s="113" t="s">
+      <c r="Z43" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="AA43" s="111" t="s">
+      <c r="AA43" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="AB43" s="114" t="s">
+      <c r="AB43" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="AC43" s="115" t="s">
+      <c r="AC43" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="AD43" s="115" t="s">
+      <c r="AD43" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="AE43" s="115" t="s">
+      <c r="AE43" s="113" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7182,28 +8476,28 @@
       <c r="R44">
         <v>3.5684683505649351E-2</v>
       </c>
-      <c r="X44" s="100">
+      <c r="X44" s="98">
         <v>4</v>
       </c>
-      <c r="Y44" s="101" t="s">
+      <c r="Y44" s="99" t="s">
         <v>260</v>
       </c>
-      <c r="Z44" s="100" t="s">
+      <c r="Z44" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="AA44" s="115" t="s">
+      <c r="AA44" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="AB44" s="102" t="s">
+      <c r="AB44" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="AC44" s="102" t="s">
+      <c r="AC44" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="AD44" s="101" t="s">
+      <c r="AD44" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="AE44" s="102" t="s">
+      <c r="AE44" s="100" t="s">
         <v>110</v>
       </c>
     </row>
@@ -7223,22 +8517,22 @@
         <f t="shared" si="6"/>
         <v>0.59817650394799993</v>
       </c>
-      <c r="X45" s="130" t="s">
+      <c r="X45" s="140" t="s">
         <v>261</v>
       </c>
-      <c r="Y45" s="131"/>
-      <c r="Z45" s="126" t="s">
+      <c r="Y45" s="141"/>
+      <c r="Z45" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="AA45" s="127"/>
-      <c r="AB45" s="128" t="s">
+      <c r="AA45" s="136"/>
+      <c r="AB45" s="137" t="s">
         <v>219</v>
       </c>
-      <c r="AC45" s="129"/>
-      <c r="AD45" s="128" t="s">
+      <c r="AC45" s="138"/>
+      <c r="AD45" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="AE45" s="129"/>
+      <c r="AE45" s="138"/>
     </row>
     <row r="46" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K46" t="s">
@@ -7247,28 +8541,28 @@
       <c r="L46">
         <v>0.18501068795532871</v>
       </c>
-      <c r="X46" s="103" t="s">
+      <c r="X46" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="Y46" s="104" t="s">
+      <c r="Y46" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="Z46" s="101" t="s">
+      <c r="Z46" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="AA46" s="108" t="s">
+      <c r="AA46" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="AB46" s="98" t="s">
+      <c r="AB46" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="AC46" s="116" t="s">
+      <c r="AC46" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="AD46" s="98" t="s">
+      <c r="AD46" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="AE46" s="99" t="s">
+      <c r="AE46" s="97" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7279,28 +8573,28 @@
       <c r="L47">
         <v>3.250010906076866E-2</v>
       </c>
-      <c r="X47" s="98">
+      <c r="X47" s="96">
         <v>1</v>
       </c>
-      <c r="Y47" s="108" t="s">
+      <c r="Y47" s="106" t="s">
         <v>257</v>
       </c>
-      <c r="Z47" s="117" t="s">
+      <c r="Z47" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="AA47" s="109" t="s">
+      <c r="AA47" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="AB47" s="116" t="s">
+      <c r="AB47" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="AC47" s="108" t="s">
+      <c r="AC47" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="AD47" s="109" t="s">
+      <c r="AD47" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="AE47" s="118" t="s">
+      <c r="AE47" s="116" t="s">
         <v>110</v>
       </c>
     </row>
@@ -7311,54 +8605,54 @@
       <c r="L48">
         <v>5.5708240631679971E-2</v>
       </c>
-      <c r="X48" s="98">
+      <c r="X48" s="96">
         <v>2</v>
       </c>
-      <c r="Y48" s="105" t="s">
+      <c r="Y48" s="103" t="s">
         <v>258</v>
       </c>
-      <c r="Z48" s="109" t="s">
+      <c r="Z48" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="AA48" s="111" t="s">
+      <c r="AA48" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AB48" s="119" t="s">
+      <c r="AB48" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="AC48" s="120" t="s">
+      <c r="AC48" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="AD48" s="111" t="s">
+      <c r="AD48" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AE48" s="121" t="s">
+      <c r="AE48" s="119" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="49" spans="14:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="X49" s="98">
+      <c r="X49" s="96">
         <v>3</v>
       </c>
-      <c r="Y49" s="105" t="s">
+      <c r="Y49" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="Z49" s="115" t="s">
+      <c r="Z49" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="AA49" s="115" t="s">
+      <c r="AA49" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="AB49" s="105" t="s">
+      <c r="AB49" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="AC49" s="109" t="s">
+      <c r="AC49" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="AD49" s="111" t="s">
+      <c r="AD49" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="AE49" s="121" t="s">
+      <c r="AE49" s="119" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7375,28 +8669,28 @@
       <c r="R50">
         <v>0.18501068795532874</v>
       </c>
-      <c r="X50" s="100">
+      <c r="X50" s="98">
         <v>4</v>
       </c>
-      <c r="Y50" s="101" t="s">
+      <c r="Y50" s="99" t="s">
         <v>260</v>
       </c>
-      <c r="Z50" s="122" t="s">
+      <c r="Z50" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="AA50" s="101" t="s">
+      <c r="AA50" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="AB50" s="100" t="s">
+      <c r="AB50" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="AC50" s="115" t="s">
+      <c r="AC50" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="AD50" s="115" t="s">
+      <c r="AD50" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="AE50" s="123" t="s">
+      <c r="AE50" s="121" t="s">
         <v>109</v>
       </c>
     </row>
@@ -8651,27 +9945,6 @@
     <sortCondition ref="A2:A9"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="AB45:AC45"/>
     <mergeCell ref="AD45:AE45"/>
     <mergeCell ref="X45:Y45"/>
     <mergeCell ref="Y19:Z19"/>
@@ -8679,6 +9952,27 @@
     <mergeCell ref="X39:Y39"/>
     <mergeCell ref="Z39:AB39"/>
     <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q19:S19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8687,12 +9981,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD67F25F-A944-456E-9C3E-16CC5467D25D}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="B75" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8841,7 +10135,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J7" s="142" t="s">
+      <c r="J7" s="139" t="s">
         <v>106</v>
       </c>
       <c r="K7" t="s">
@@ -8855,7 +10149,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J8" s="142"/>
+      <c r="J8" s="139"/>
       <c r="K8" t="s">
         <v>110</v>
       </c>
@@ -8867,7 +10161,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J9" s="142"/>
+      <c r="J9" s="139"/>
       <c r="K9" t="s">
         <v>111</v>
       </c>
@@ -8879,7 +10173,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J10" s="142"/>
+      <c r="J10" s="139"/>
       <c r="K10" t="s">
         <v>107</v>
       </c>
@@ -8891,7 +10185,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J11" s="142" t="s">
+      <c r="J11" s="139" t="s">
         <v>108</v>
       </c>
       <c r="K11" t="s">
@@ -8905,7 +10199,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J12" s="142"/>
+      <c r="J12" s="139"/>
       <c r="K12" t="s">
         <v>107</v>
       </c>
@@ -8917,7 +10211,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J13" s="142"/>
+      <c r="J13" s="139"/>
       <c r="K13" t="s">
         <v>109</v>
       </c>
@@ -8929,7 +10223,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J14" s="142"/>
+      <c r="J14" s="139"/>
       <c r="K14" t="s">
         <v>111</v>
       </c>
@@ -9140,15 +10434,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="148" t="s">
         <v>261</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="145" t="s">
+      <c r="C24" s="149"/>
+      <c r="D24" s="150" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="138"/>
-      <c r="F24" s="146"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="151"/>
       <c r="G24" s="79" t="s">
         <v>213</v>
       </c>
@@ -9212,8 +10506,12 @@
       <c r="I26" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
+      <c r="J26" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
     </row>
@@ -9231,7 +10529,7 @@
       <c r="E27" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="96" t="s">
+      <c r="F27" s="94" t="s">
         <v>107</v>
       </c>
       <c r="G27" s="55" t="s">
@@ -9243,8 +10541,12 @@
       <c r="I27" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
+      <c r="J27" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>111</v>
+      </c>
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
     </row>
@@ -9274,8 +10576,12 @@
       <c r="I28" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
+      <c r="J28" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" s="47" t="s">
+        <v>109</v>
+      </c>
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
     </row>
@@ -9305,33 +10611,41 @@
       <c r="I29" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
+      <c r="J29" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="L29" s="23"/>
       <c r="M29" s="23"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
-      <c r="B30" s="147" t="s">
+      <c r="B30" s="152" t="s">
         <v>261</v>
       </c>
-      <c r="C30" s="148"/>
-      <c r="D30" s="149" t="s">
+      <c r="C30" s="153"/>
+      <c r="D30" s="154" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="138"/>
-      <c r="F30" s="150" t="s">
+      <c r="E30" s="129"/>
+      <c r="F30" s="146" t="s">
         <v>219</v>
       </c>
-      <c r="G30" s="151"/>
+      <c r="G30" s="147"/>
       <c r="H30" s="50" t="s">
         <v>109</v>
       </c>
       <c r="I30" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
+      <c r="J30" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>110</v>
+      </c>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
     </row>
@@ -9355,11 +10669,11 @@
       <c r="G31" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="150" t="s">
+      <c r="H31" s="146" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="151"/>
-      <c r="J31" s="94"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="92"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
       <c r="M31" s="23"/>
@@ -9414,7 +10728,7 @@
       <c r="F33" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="124" t="s">
+      <c r="G33" s="122" t="s">
         <v>107</v>
       </c>
       <c r="H33" s="55" t="s">
@@ -9536,8 +10850,6 @@
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
@@ -9551,8 +10863,6 @@
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
@@ -9566,8 +10876,6 @@
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
@@ -9581,8 +10889,6 @@
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
@@ -9596,8 +10902,6 @@
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
@@ -9678,16 +10982,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9ABB24-0CAD-4802-B2F7-01B1A6D7D133}">
-  <dimension ref="G1:P41"/>
+  <dimension ref="G1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G16" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
     <col min="8" max="8" width="27.5546875" customWidth="1"/>
     <col min="9" max="10" width="17.44140625" customWidth="1"/>
     <col min="11" max="11" width="20.5546875" customWidth="1"/>
@@ -9698,20 +11004,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G1" s="139" t="s">
+      <c r="G1" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="140"/>
-      <c r="I1" s="132" t="s">
+      <c r="H1" s="133"/>
+      <c r="I1" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="141"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="132" t="s">
+      <c r="J1" s="134"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="141"/>
-      <c r="N1" s="133"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="131"/>
     </row>
     <row r="2" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G2" s="45" t="s">
@@ -9844,18 +11150,18 @@
       </c>
     </row>
     <row r="7" spans="7:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="J7" s="146"/>
-      <c r="K7" s="132" t="s">
+      <c r="J7" s="151"/>
+      <c r="K7" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="L7" s="133"/>
-      <c r="M7" s="132" t="s">
+      <c r="L7" s="131"/>
+      <c r="M7" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="N7" s="133"/>
+      <c r="N7" s="131"/>
     </row>
     <row r="8" spans="7:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I8" s="43" t="s">
@@ -9965,7 +11271,7 @@
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
     </row>
-    <row r="14" spans="7:15" s="95" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:15" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
       <c r="K14" s="43"/>
@@ -9974,20 +11280,20 @@
       <c r="N14" s="43"/>
     </row>
     <row r="15" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G15" s="143" t="s">
+      <c r="G15" s="148" t="s">
         <v>261</v>
       </c>
-      <c r="H15" s="144"/>
-      <c r="I15" s="145" t="s">
+      <c r="H15" s="149"/>
+      <c r="I15" s="150" t="s">
         <v>188</v>
       </c>
-      <c r="J15" s="138"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="145" t="s">
+      <c r="J15" s="129"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="150" t="s">
         <v>213</v>
       </c>
-      <c r="M15" s="138"/>
-      <c r="N15" s="146"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="151"/>
       <c r="O15" s="44"/>
     </row>
     <row r="16" spans="7:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -10057,7 +11363,7 @@
       <c r="J18" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="K18" s="96" t="s">
+      <c r="K18" s="94" t="s">
         <v>130</v>
       </c>
       <c r="L18" s="58" t="s">
@@ -10126,24 +11432,24 @@
       <c r="O20" s="44"/>
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="G21" s="147" t="s">
+      <c r="G21" s="152" t="s">
         <v>261</v>
       </c>
-      <c r="H21" s="148"/>
-      <c r="I21" s="149" t="s">
+      <c r="H21" s="153"/>
+      <c r="I21" s="154" t="s">
         <v>145</v>
       </c>
-      <c r="J21" s="138"/>
-      <c r="K21" s="150" t="s">
+      <c r="J21" s="129"/>
+      <c r="K21" s="146" t="s">
         <v>219</v>
       </c>
-      <c r="L21" s="151"/>
-      <c r="M21" s="150" t="s">
+      <c r="L21" s="147"/>
+      <c r="M21" s="146" t="s">
         <v>143</v>
       </c>
-      <c r="N21" s="151"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
     </row>
     <row r="22" spans="7:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G22" s="84" t="s">
@@ -10221,7 +11527,7 @@
       <c r="K24" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="L24" s="124" t="s">
+      <c r="L24" s="122" t="s">
         <v>130</v>
       </c>
       <c r="M24" s="87" t="s">
@@ -10295,9 +11601,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="7:14" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="7:14" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G33" s="38" t="s">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>215</v>
@@ -10316,16 +11623,16 @@
       <c r="G34" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="91">
+      <c r="H34" s="124">
         <v>30.722808259582351</v>
       </c>
-      <c r="I34" s="91">
+      <c r="I34" s="124">
         <v>34.286560553284673</v>
       </c>
-      <c r="J34" s="91">
+      <c r="J34" s="124">
         <v>3.5637522937023203</v>
       </c>
-      <c r="K34" s="91">
+      <c r="K34" s="124">
         <v>2.9452498295060501E-2</v>
       </c>
       <c r="L34" t="s">
@@ -10342,16 +11649,16 @@
       <c r="G35" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="H35" s="91">
+      <c r="H35" s="124">
         <v>31.67526671789479</v>
       </c>
-      <c r="I35" s="91">
+      <c r="I35" s="124">
         <v>35.34615518130596</v>
       </c>
-      <c r="J35" s="91">
+      <c r="J35" s="124">
         <v>3.6708884634111727</v>
       </c>
-      <c r="K35" s="91">
+      <c r="K35" s="124">
         <v>3.0337921185216301E-2</v>
       </c>
       <c r="L35" t="s">
@@ -10368,16 +11675,16 @@
       <c r="G36" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="H36" s="91">
+      <c r="H36" s="124">
         <v>31.175168432148407</v>
       </c>
-      <c r="I36" s="91">
+      <c r="I36" s="124">
         <v>35.613121984764781</v>
       </c>
-      <c r="J36" s="91">
+      <c r="J36" s="124">
         <v>4.4379535526163734</v>
       </c>
-      <c r="K36" s="91">
+      <c r="K36" s="124">
         <v>3.6677302087738624E-2</v>
       </c>
       <c r="M36">
@@ -10391,16 +11698,16 @@
       <c r="G37" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="H37" s="91">
+      <c r="H37" s="124">
         <v>28.176923275315506</v>
       </c>
-      <c r="I37" s="91">
+      <c r="I37" s="124">
         <v>32.569293719442939</v>
       </c>
-      <c r="J37" s="91">
+      <c r="J37" s="124">
         <v>4.3923704441274349</v>
       </c>
-      <c r="K37" s="91">
+      <c r="K37" s="124">
         <v>3.6300582182871362E-2</v>
       </c>
       <c r="M37">
@@ -10414,16 +11721,16 @@
       <c r="G38" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="H38" s="91">
+      <c r="H38" s="124">
         <v>168.58791057509103</v>
       </c>
-      <c r="I38" s="91">
+      <c r="I38" s="124">
         <v>194.64133998107238</v>
       </c>
-      <c r="J38" s="91">
+      <c r="J38" s="124">
         <v>26.05342940598134</v>
       </c>
-      <c r="K38" s="91">
+      <c r="K38" s="124">
         <v>0.21531759839653999</v>
       </c>
     </row>
@@ -10431,16 +11738,16 @@
       <c r="G39" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="H39" s="91">
+      <c r="H39" s="124">
         <v>161.76495059423493</v>
       </c>
-      <c r="I39" s="91">
+      <c r="I39" s="124">
         <v>186.72008491154486</v>
       </c>
-      <c r="J39" s="91">
+      <c r="J39" s="124">
         <v>24.955134317309909</v>
       </c>
-      <c r="K39" s="91">
+      <c r="K39" s="124">
         <v>0.20624077948190006</v>
       </c>
     </row>
@@ -10448,16 +11755,16 @@
       <c r="G40" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="H40" s="91">
+      <c r="H40" s="124">
         <v>195.62040467643558</v>
       </c>
-      <c r="I40" s="91">
+      <c r="I40" s="124">
         <v>228.84565410478109</v>
       </c>
-      <c r="J40" s="91">
+      <c r="J40" s="124">
         <v>33.225249428345499</v>
       </c>
-      <c r="K40" s="91">
+      <c r="K40" s="124">
         <v>0.27458883825078922</v>
       </c>
     </row>
@@ -10465,18 +11772,24 @@
       <c r="G41" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="H41" s="91">
+      <c r="H41" s="124">
         <v>160.61428163951118</v>
       </c>
-      <c r="I41" s="91">
+      <c r="I41" s="124">
         <v>191.21889785965905</v>
       </c>
-      <c r="J41" s="91">
+      <c r="J41" s="124">
         <v>30.604616220147868</v>
       </c>
-      <c r="K41" s="91">
+      <c r="K41" s="124">
         <v>0.25293071256320554</v>
       </c>
+    </row>
+    <row r="42" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -10498,12 +11811,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79982962-BDF0-410A-BCAB-D562FD7DCD04}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:I31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10515,27 +11828,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D1" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="37" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="127">
         <v>-3.5324049999999998</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="127">
         <v>4.9299999999999995E-4</v>
       </c>
       <c r="G2" t="s">
@@ -10546,36 +11866,36 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="92">
+      <c r="D3" s="128">
         <v>-19.148900000000001</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="127">
         <v>1.9E-50</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="127">
         <v>-19.613939999999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="127">
         <v>2.1899999999999999E-39</v>
       </c>
       <c r="G4" t="s">
@@ -10592,19 +11912,19 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="127">
         <v>-25.08878</v>
       </c>
-      <c r="E5" s="93">
+      <c r="E5" s="128">
         <v>2.1399999999999999E-69</v>
       </c>
       <c r="G5" t="s">
@@ -10636,19 +11956,19 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="127">
         <v>-14.559200000000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="127">
         <v>6.01E-35</v>
       </c>
       <c r="G6" t="s">
@@ -10686,19 +12006,19 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="127">
         <v>-23.424289999999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="127">
         <v>2.9099999999999999E-64</v>
       </c>
       <c r="G7">
@@ -10715,19 +12035,19 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="127">
         <v>-5.7855080000000001</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="127">
         <v>2.22E-8</v>
       </c>
       <c r="H8">
@@ -10738,19 +12058,19 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="127">
         <v>-6.3866149999999999</v>
       </c>
-      <c r="E9" s="93">
+      <c r="E9" s="128">
         <v>8.5500000000000005E-10</v>
       </c>
       <c r="G9" t="s">
@@ -10834,13 +12154,13 @@
       </c>
     </row>
     <row r="29" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G29" s="125" t="s">
+      <c r="G29" s="123" t="s">
         <v>279</v>
       </c>
-      <c r="H29" s="125" t="s">
+      <c r="H29" s="123" t="s">
         <v>282</v>
       </c>
-      <c r="I29" s="125" t="s">
+      <c r="I29" s="123" t="s">
         <v>255</v>
       </c>
       <c r="J29" s="37"/>
@@ -10849,7 +12169,7 @@
       <c r="G30" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="127">
         <v>-704.73509999999999</v>
       </c>
       <c r="I30" s="37" t="s">
@@ -10863,10 +12183,10 @@
       <c r="G31" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="127">
         <v>8.441376</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="127">
         <v>0.46379999999999999</v>
       </c>
       <c r="J31" s="37"/>
@@ -10879,7 +12199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1977B83-A602-417F-8B51-6483C4C25C1A}">
   <dimension ref="A2:AC42"/>
   <sheetViews>
@@ -11866,11 +13186,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2BBBD3-A326-4619-9F79-F4936C420D68}">
   <dimension ref="A1:AJ69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
@@ -13573,8 +14893,8 @@
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Q45" s="23"/>
       <c r="R45" s="23"/>
-      <c r="S45" s="152"/>
-      <c r="T45" s="152"/>
+      <c r="S45" s="155"/>
+      <c r="T45" s="155"/>
       <c r="U45" s="23"/>
       <c r="V45" s="23"/>
       <c r="W45" s="23"/>
@@ -13685,8 +15005,8 @@
     <row r="53" spans="17:36" x14ac:dyDescent="0.3">
       <c r="Q53" s="23"/>
       <c r="R53" s="23"/>
-      <c r="S53" s="152"/>
-      <c r="T53" s="152"/>
+      <c r="S53" s="155"/>
+      <c r="T53" s="155"/>
       <c r="U53" s="23"/>
       <c r="V53" s="23"/>
       <c r="W53" s="23"/>
@@ -13803,8 +15123,8 @@
     <row r="61" spans="17:36" x14ac:dyDescent="0.3">
       <c r="Q61" s="23"/>
       <c r="R61" s="23"/>
-      <c r="S61" s="152"/>
-      <c r="T61" s="152"/>
+      <c r="S61" s="155"/>
+      <c r="T61" s="155"/>
       <c r="U61" s="23"/>
       <c r="V61" s="23"/>
       <c r="W61" s="23"/>
@@ -13875,12 +15195,12 @@
       <c r="R66" s="23"/>
       <c r="S66" s="23"/>
       <c r="T66" s="23"/>
-      <c r="U66" s="153"/>
-      <c r="V66" s="153"/>
-      <c r="W66" s="153"/>
-      <c r="X66" s="153"/>
-      <c r="Y66" s="153"/>
-      <c r="Z66" s="153"/>
+      <c r="U66" s="156"/>
+      <c r="V66" s="156"/>
+      <c r="W66" s="156"/>
+      <c r="X66" s="156"/>
+      <c r="Y66" s="156"/>
+      <c r="Z66" s="156"/>
       <c r="AA66" s="23"/>
       <c r="AB66" s="23"/>
     </row>
